--- a/lib/PHPExcel/templates/OT_LoS.xlsx
+++ b/lib/PHPExcel/templates/OT_LoS.xlsx
@@ -683,22 +683,26 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -712,30 +716,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="1"/>
@@ -1525,10 +1525,10 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="81"/>
       <c r="L2" s="71"/>
       <c r="M2" s="72"/>
       <c r="N2" s="1"/>
@@ -1537,10 +1537,10 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="64" t="s">
+      <c r="T2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="80"/>
+      <c r="U2" s="68"/>
       <c r="V2" s="71" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
@@ -1552,10 +1552,10 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="64" t="s">
+      <c r="AD2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AE2" s="80"/>
+      <c r="AE2" s="68"/>
       <c r="AF2" s="71" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
@@ -1567,10 +1567,10 @@
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="64" t="s">
+      <c r="AN2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AO2" s="80"/>
+      <c r="AO2" s="68"/>
       <c r="AP2" s="71" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
@@ -1582,10 +1582,10 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="64" t="s">
+      <c r="AX2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="AY2" s="80"/>
+      <c r="AY2" s="68"/>
       <c r="AZ2" s="71" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
@@ -1597,10 +1597,10 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="64" t="s">
+      <c r="BH2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="BI2" s="80"/>
+      <c r="BI2" s="68"/>
       <c r="BJ2" s="71" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
@@ -1612,10 +1612,10 @@
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="64" t="s">
+      <c r="BR2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="BS2" s="80"/>
+      <c r="BS2" s="68"/>
       <c r="BT2" s="71" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
@@ -1627,10 +1627,10 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="64" t="s">
+      <c r="CB2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="CC2" s="80"/>
+      <c r="CC2" s="68"/>
       <c r="CD2" s="71" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
@@ -1642,10 +1642,10 @@
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="64" t="s">
+      <c r="CL2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="CM2" s="80"/>
+      <c r="CM2" s="68"/>
       <c r="CN2" s="71" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
@@ -1657,10 +1657,10 @@
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="64" t="s">
+      <c r="CV2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="CW2" s="80"/>
+      <c r="CW2" s="68"/>
       <c r="CX2" s="71" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
@@ -1672,10 +1672,10 @@
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="64" t="s">
+      <c r="DF2" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" s="80"/>
+      <c r="DG2" s="68"/>
       <c r="DH2" s="71" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
@@ -1692,8 +1692,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="73"/>
       <c r="M3" s="74"/>
       <c r="N3" s="1"/>
@@ -1702,8 +1702,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="81"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
       <c r="V3" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1715,8 +1715,8 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="81"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="70"/>
       <c r="AF3" s="73" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1728,8 +1728,8 @@
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="81"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="70"/>
       <c r="AP3" s="73" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1741,8 +1741,8 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="81"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="70"/>
       <c r="AZ3" s="73" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1754,8 +1754,8 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="81"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="70"/>
       <c r="BJ3" s="73" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -1767,8 +1767,8 @@
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="81"/>
+      <c r="BR3" s="69"/>
+      <c r="BS3" s="70"/>
       <c r="BT3" s="73" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1780,8 +1780,8 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="81"/>
+      <c r="CB3" s="69"/>
+      <c r="CC3" s="70"/>
       <c r="CD3" s="73" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -1793,8 +1793,8 @@
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="81"/>
+      <c r="CL3" s="69"/>
+      <c r="CM3" s="70"/>
       <c r="CN3" s="73" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1806,8 +1806,8 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="81"/>
+      <c r="CV3" s="69"/>
+      <c r="CW3" s="70"/>
       <c r="CX3" s="73" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -1819,8 +1819,8 @@
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="66"/>
-      <c r="DG3" s="81"/>
+      <c r="DF3" s="69"/>
+      <c r="DG3" s="70"/>
       <c r="DH3" s="73" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -1838,214 +1838,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="69"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="68" t="str">
+      <c r="Q4" s="75" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="68"/>
+      <c r="R4" s="75"/>
       <c r="S4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="70" t="str">
+      <c r="U4" s="76" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="70"/>
+      <c r="V4" s="76"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="68" t="str">
+      <c r="AA4" s="75" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="68"/>
+      <c r="AB4" s="75"/>
       <c r="AC4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="70" t="str">
+      <c r="AE4" s="76" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="70"/>
+      <c r="AF4" s="76"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="68" t="str">
+      <c r="AK4" s="75" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="68"/>
+      <c r="AL4" s="75"/>
       <c r="AM4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="70" t="str">
+      <c r="AO4" s="76" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="70"/>
+      <c r="AP4" s="76"/>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="68" t="str">
+      <c r="AU4" s="75" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="68"/>
+      <c r="AV4" s="75"/>
       <c r="AW4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="70" t="str">
+      <c r="AY4" s="76" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="70"/>
+      <c r="AZ4" s="76"/>
       <c r="BA4" s="6"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="68" t="str">
+      <c r="BE4" s="75" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="68"/>
+      <c r="BF4" s="75"/>
       <c r="BG4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="70" t="str">
+      <c r="BI4" s="76" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="70"/>
+      <c r="BJ4" s="76"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="68" t="str">
+      <c r="BO4" s="75" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="68"/>
+      <c r="BP4" s="75"/>
       <c r="BQ4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="70" t="str">
+      <c r="BS4" s="76" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="70"/>
+      <c r="BT4" s="76"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="68" t="str">
+      <c r="BY4" s="75" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="68"/>
+      <c r="BZ4" s="75"/>
       <c r="CA4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="70" t="str">
+      <c r="CC4" s="76" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="70"/>
+      <c r="CD4" s="76"/>
       <c r="CE4" s="6"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="68" t="str">
+      <c r="CI4" s="75" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="68"/>
+      <c r="CJ4" s="75"/>
       <c r="CK4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="70" t="str">
+      <c r="CM4" s="76" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="70"/>
+      <c r="CN4" s="76"/>
       <c r="CO4" s="6"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="68" t="str">
+      <c r="CS4" s="75" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="68"/>
+      <c r="CT4" s="75"/>
       <c r="CU4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="70" t="str">
+      <c r="CW4" s="76" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="70"/>
+      <c r="CX4" s="76"/>
       <c r="CY4" s="6"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="68" t="str">
+      <c r="DC4" s="75" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="68"/>
+      <c r="DD4" s="75"/>
       <c r="DE4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="70" t="str">
+      <c r="DG4" s="76" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="70"/>
+      <c r="DH4" s="76"/>
       <c r="DI4" s="6"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,14 +2057,14 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="6"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
@@ -2080,11 +2080,11 @@
         <v>19</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="78" t="str">
+      <c r="U5" s="66" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="78"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="6"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
@@ -2100,11 +2100,11 @@
         <v>19</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="78" t="str">
+      <c r="AE5" s="66" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="78"/>
+      <c r="AF5" s="66"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
@@ -2120,11 +2120,11 @@
         <v>19</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="78" t="str">
+      <c r="AO5" s="66" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="78"/>
+      <c r="AP5" s="66"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
@@ -2140,11 +2140,11 @@
         <v>19</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="78" t="str">
+      <c r="AY5" s="66" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="78"/>
+      <c r="AZ5" s="66"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
@@ -2160,11 +2160,11 @@
         <v>19</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="78" t="str">
+      <c r="BI5" s="66" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="78"/>
+      <c r="BJ5" s="66"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
@@ -2180,11 +2180,11 @@
         <v>19</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="78" t="str">
+      <c r="BS5" s="66" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="78"/>
+      <c r="BT5" s="66"/>
       <c r="BU5" s="6"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
@@ -2200,11 +2200,11 @@
         <v>19</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="78" t="str">
+      <c r="CC5" s="66" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="78"/>
+      <c r="CD5" s="66"/>
       <c r="CE5" s="6"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
@@ -2220,11 +2220,11 @@
         <v>19</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="78" t="str">
+      <c r="CM5" s="66" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="78"/>
+      <c r="CN5" s="66"/>
       <c r="CO5" s="6"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
@@ -2240,11 +2240,11 @@
         <v>19</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="78" t="str">
+      <c r="CW5" s="66" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="78"/>
+      <c r="CX5" s="66"/>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
@@ -2260,11 +2260,11 @@
         <v>19</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="78" t="str">
+      <c r="DG5" s="66" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="78"/>
+      <c r="DH5" s="66"/>
       <c r="DI5" s="6"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,214 +2278,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
       <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="79" t="str">
+      <c r="Q6" s="65" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="79"/>
+      <c r="R6" s="65"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="78" t="str">
+      <c r="U6" s="66" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="78"/>
+      <c r="V6" s="66"/>
       <c r="W6" s="6"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="79" t="str">
+      <c r="AA6" s="65" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="79"/>
+      <c r="AB6" s="65"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="78" t="str">
+      <c r="AE6" s="66" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="78"/>
+      <c r="AF6" s="66"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="79" t="str">
+      <c r="AK6" s="65" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="79"/>
+      <c r="AL6" s="65"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="78" t="str">
+      <c r="AO6" s="66" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="78"/>
+      <c r="AP6" s="66"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="79" t="str">
+      <c r="AU6" s="65" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="79"/>
+      <c r="AV6" s="65"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="78" t="str">
+      <c r="AY6" s="66" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="78"/>
+      <c r="AZ6" s="66"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="79" t="str">
+      <c r="BE6" s="65" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="79"/>
+      <c r="BF6" s="65"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="78" t="str">
+      <c r="BI6" s="66" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="78"/>
+      <c r="BJ6" s="66"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="79" t="str">
+      <c r="BO6" s="65" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="79"/>
+      <c r="BP6" s="65"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="78" t="str">
+      <c r="BS6" s="66" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="78"/>
+      <c r="BT6" s="66"/>
       <c r="BU6" s="6"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="79" t="str">
+      <c r="BY6" s="65" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="79"/>
+      <c r="BZ6" s="65"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="78" t="str">
+      <c r="CC6" s="66" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="78"/>
+      <c r="CD6" s="66"/>
       <c r="CE6" s="6"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="79" t="str">
+      <c r="CI6" s="65" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="79"/>
+      <c r="CJ6" s="65"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="78" t="str">
+      <c r="CM6" s="66" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="78"/>
+      <c r="CN6" s="66"/>
       <c r="CO6" s="6"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="79" t="str">
+      <c r="CS6" s="65" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="79"/>
+      <c r="CT6" s="65"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="78" t="str">
+      <c r="CW6" s="66" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="78"/>
+      <c r="CX6" s="66"/>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="79" t="str">
+      <c r="DC6" s="65" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="79"/>
+      <c r="DD6" s="65"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="78" t="str">
+      <c r="DG6" s="66" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="78"/>
+      <c r="DH6" s="66"/>
       <c r="DI6" s="6"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5555,11 +5555,11 @@
       <c r="DI32" s="29"/>
     </row>
     <row r="33" spans="1:113" s="19" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -6588,116 +6588,146 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="82"/>
-      <c r="X42" s="82"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
-      <c r="AC42" s="82"/>
-      <c r="AD42" s="82"/>
-      <c r="AE42" s="82"/>
-      <c r="AF42" s="82"/>
-      <c r="AG42" s="82"/>
-      <c r="AH42" s="82"/>
-      <c r="AI42" s="82"/>
-      <c r="AJ42" s="82"/>
-      <c r="AK42" s="82"/>
-      <c r="AL42" s="82"/>
-      <c r="AM42" s="82"/>
-      <c r="AN42" s="82"/>
-      <c r="AO42" s="82"/>
-      <c r="AP42" s="82"/>
-      <c r="AQ42" s="82"/>
-      <c r="AR42" s="82"/>
-      <c r="AS42" s="82"/>
-      <c r="AT42" s="82"/>
-      <c r="AU42" s="82"/>
-      <c r="AV42" s="82"/>
-      <c r="AW42" s="82"/>
-      <c r="AX42" s="82"/>
-      <c r="AY42" s="82"/>
-      <c r="AZ42" s="82"/>
-      <c r="BA42" s="82"/>
-      <c r="BB42" s="82"/>
-      <c r="BC42" s="82"/>
-      <c r="BD42" s="82"/>
-      <c r="BE42" s="82"/>
-      <c r="BF42" s="82"/>
-      <c r="BG42" s="82"/>
-      <c r="BH42" s="82"/>
-      <c r="BI42" s="82"/>
-      <c r="BJ42" s="82"/>
-      <c r="BK42" s="82"/>
-      <c r="BL42" s="82"/>
-      <c r="BM42" s="82"/>
-      <c r="BN42" s="82"/>
-      <c r="BO42" s="82"/>
-      <c r="BP42" s="82"/>
-      <c r="BQ42" s="82"/>
-      <c r="BR42" s="82"/>
-      <c r="BS42" s="82"/>
-      <c r="BT42" s="82"/>
-      <c r="BU42" s="82"/>
-      <c r="BV42" s="82"/>
-      <c r="BW42" s="82"/>
-      <c r="BX42" s="82"/>
-      <c r="BY42" s="82"/>
-      <c r="BZ42" s="82"/>
-      <c r="CA42" s="82"/>
-      <c r="CB42" s="82"/>
-      <c r="CC42" s="82"/>
-      <c r="CD42" s="82"/>
-      <c r="CE42" s="82"/>
-      <c r="CF42" s="82"/>
-      <c r="CG42" s="82"/>
-      <c r="CH42" s="82"/>
-      <c r="CI42" s="82"/>
-      <c r="CJ42" s="82"/>
-      <c r="CK42" s="82"/>
-      <c r="CL42" s="82"/>
-      <c r="CM42" s="82"/>
-      <c r="CN42" s="82"/>
-      <c r="CO42" s="82"/>
-      <c r="CP42" s="82"/>
-      <c r="CQ42" s="82"/>
-      <c r="CR42" s="82"/>
-      <c r="CS42" s="82"/>
-      <c r="CT42" s="82"/>
-      <c r="CU42" s="82"/>
-      <c r="CV42" s="82"/>
-      <c r="CW42" s="82"/>
-      <c r="CX42" s="82"/>
-      <c r="CY42" s="82"/>
-      <c r="CZ42" s="82"/>
-      <c r="DA42" s="82"/>
-      <c r="DB42" s="82"/>
-      <c r="DC42" s="82"/>
-      <c r="DD42" s="82"/>
-      <c r="DE42" s="82"/>
-      <c r="DF42" s="82"/>
-      <c r="DG42" s="82"/>
-      <c r="DH42" s="82"/>
-      <c r="DI42" s="82"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64" t="str">
+        <f>IF(ISBLANK(D42),"",D42)</f>
+        <v/>
+      </c>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64" t="str">
+        <f t="shared" ref="X42" si="33">IF(ISBLANK(N42),"",N42)</f>
+        <v/>
+      </c>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="64"/>
+      <c r="AF42" s="64"/>
+      <c r="AG42" s="64"/>
+      <c r="AH42" s="64" t="str">
+        <f t="shared" ref="AH42" si="34">IF(ISBLANK(X42),"",X42)</f>
+        <v/>
+      </c>
+      <c r="AI42" s="64"/>
+      <c r="AJ42" s="64"/>
+      <c r="AK42" s="64"/>
+      <c r="AL42" s="64"/>
+      <c r="AM42" s="64"/>
+      <c r="AN42" s="64"/>
+      <c r="AO42" s="64"/>
+      <c r="AP42" s="64"/>
+      <c r="AQ42" s="64"/>
+      <c r="AR42" s="64" t="str">
+        <f t="shared" ref="AR42" si="35">IF(ISBLANK(AH42),"",AH42)</f>
+        <v/>
+      </c>
+      <c r="AS42" s="64"/>
+      <c r="AT42" s="64"/>
+      <c r="AU42" s="64"/>
+      <c r="AV42" s="64"/>
+      <c r="AW42" s="64"/>
+      <c r="AX42" s="64"/>
+      <c r="AY42" s="64"/>
+      <c r="AZ42" s="64"/>
+      <c r="BA42" s="64"/>
+      <c r="BB42" s="64" t="str">
+        <f t="shared" ref="BB42" si="36">IF(ISBLANK(AR42),"",AR42)</f>
+        <v/>
+      </c>
+      <c r="BC42" s="64"/>
+      <c r="BD42" s="64"/>
+      <c r="BE42" s="64"/>
+      <c r="BF42" s="64"/>
+      <c r="BG42" s="64"/>
+      <c r="BH42" s="64"/>
+      <c r="BI42" s="64"/>
+      <c r="BJ42" s="64"/>
+      <c r="BK42" s="64"/>
+      <c r="BL42" s="64" t="str">
+        <f t="shared" ref="BL42" si="37">IF(ISBLANK(BB42),"",BB42)</f>
+        <v/>
+      </c>
+      <c r="BM42" s="64"/>
+      <c r="BN42" s="64"/>
+      <c r="BO42" s="64"/>
+      <c r="BP42" s="64"/>
+      <c r="BQ42" s="64"/>
+      <c r="BR42" s="64"/>
+      <c r="BS42" s="64"/>
+      <c r="BT42" s="64"/>
+      <c r="BU42" s="64"/>
+      <c r="BV42" s="64" t="str">
+        <f t="shared" ref="BV42" si="38">IF(ISBLANK(BL42),"",BL42)</f>
+        <v/>
+      </c>
+      <c r="BW42" s="64"/>
+      <c r="BX42" s="64"/>
+      <c r="BY42" s="64"/>
+      <c r="BZ42" s="64"/>
+      <c r="CA42" s="64"/>
+      <c r="CB42" s="64"/>
+      <c r="CC42" s="64"/>
+      <c r="CD42" s="64"/>
+      <c r="CE42" s="64"/>
+      <c r="CF42" s="64" t="str">
+        <f t="shared" ref="CF42" si="39">IF(ISBLANK(BV42),"",BV42)</f>
+        <v/>
+      </c>
+      <c r="CG42" s="64"/>
+      <c r="CH42" s="64"/>
+      <c r="CI42" s="64"/>
+      <c r="CJ42" s="64"/>
+      <c r="CK42" s="64"/>
+      <c r="CL42" s="64"/>
+      <c r="CM42" s="64"/>
+      <c r="CN42" s="64"/>
+      <c r="CO42" s="64"/>
+      <c r="CP42" s="64" t="str">
+        <f t="shared" ref="CP42" si="40">IF(ISBLANK(CF42),"",CF42)</f>
+        <v/>
+      </c>
+      <c r="CQ42" s="64"/>
+      <c r="CR42" s="64"/>
+      <c r="CS42" s="64"/>
+      <c r="CT42" s="64"/>
+      <c r="CU42" s="64"/>
+      <c r="CV42" s="64"/>
+      <c r="CW42" s="64"/>
+      <c r="CX42" s="64"/>
+      <c r="CY42" s="64"/>
+      <c r="CZ42" s="64" t="str">
+        <f>IF(ISBLANK(CP42),"",CP42)</f>
+        <v/>
+      </c>
+      <c r="DA42" s="64"/>
+      <c r="DB42" s="64"/>
+      <c r="DC42" s="64"/>
+      <c r="DD42" s="64"/>
+      <c r="DE42" s="64"/>
+      <c r="DF42" s="64"/>
+      <c r="DG42" s="64"/>
+      <c r="DH42" s="64"/>
+      <c r="DI42" s="64"/>
     </row>
     <row r="43" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -6705,461 +6735,461 @@
         <v>51</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="82"/>
-      <c r="AN43" s="82"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="82"/>
-      <c r="AQ43" s="82"/>
-      <c r="AR43" s="82"/>
-      <c r="AS43" s="82"/>
-      <c r="AT43" s="82"/>
-      <c r="AU43" s="82"/>
-      <c r="AV43" s="82"/>
-      <c r="AW43" s="82"/>
-      <c r="AX43" s="82"/>
-      <c r="AY43" s="82"/>
-      <c r="AZ43" s="82"/>
-      <c r="BA43" s="82"/>
-      <c r="BB43" s="82"/>
-      <c r="BC43" s="82"/>
-      <c r="BD43" s="82"/>
-      <c r="BE43" s="82"/>
-      <c r="BF43" s="82"/>
-      <c r="BG43" s="82"/>
-      <c r="BH43" s="82"/>
-      <c r="BI43" s="82"/>
-      <c r="BJ43" s="82"/>
-      <c r="BK43" s="82"/>
-      <c r="BL43" s="82"/>
-      <c r="BM43" s="82"/>
-      <c r="BN43" s="82"/>
-      <c r="BO43" s="82"/>
-      <c r="BP43" s="82"/>
-      <c r="BQ43" s="82"/>
-      <c r="BR43" s="82"/>
-      <c r="BS43" s="82"/>
-      <c r="BT43" s="82"/>
-      <c r="BU43" s="82"/>
-      <c r="BV43" s="82"/>
-      <c r="BW43" s="82"/>
-      <c r="BX43" s="82"/>
-      <c r="BY43" s="82"/>
-      <c r="BZ43" s="82"/>
-      <c r="CA43" s="82"/>
-      <c r="CB43" s="82"/>
-      <c r="CC43" s="82"/>
-      <c r="CD43" s="82"/>
-      <c r="CE43" s="82"/>
-      <c r="CF43" s="82"/>
-      <c r="CG43" s="82"/>
-      <c r="CH43" s="82"/>
-      <c r="CI43" s="82"/>
-      <c r="CJ43" s="82"/>
-      <c r="CK43" s="82"/>
-      <c r="CL43" s="82"/>
-      <c r="CM43" s="82"/>
-      <c r="CN43" s="82"/>
-      <c r="CO43" s="82"/>
-      <c r="CP43" s="82"/>
-      <c r="CQ43" s="82"/>
-      <c r="CR43" s="82"/>
-      <c r="CS43" s="82"/>
-      <c r="CT43" s="82"/>
-      <c r="CU43" s="82"/>
-      <c r="CV43" s="82"/>
-      <c r="CW43" s="82"/>
-      <c r="CX43" s="82"/>
-      <c r="CY43" s="82"/>
-      <c r="CZ43" s="82"/>
-      <c r="DA43" s="82"/>
-      <c r="DB43" s="82"/>
-      <c r="DC43" s="82"/>
-      <c r="DD43" s="82"/>
-      <c r="DE43" s="82"/>
-      <c r="DF43" s="82"/>
-      <c r="DG43" s="82"/>
-      <c r="DH43" s="82"/>
-      <c r="DI43" s="82"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="64"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="64"/>
+      <c r="W43" s="64"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="64"/>
+      <c r="AC43" s="64"/>
+      <c r="AD43" s="64"/>
+      <c r="AE43" s="64"/>
+      <c r="AF43" s="64"/>
+      <c r="AG43" s="64"/>
+      <c r="AH43" s="64"/>
+      <c r="AI43" s="64"/>
+      <c r="AJ43" s="64"/>
+      <c r="AK43" s="64"/>
+      <c r="AL43" s="64"/>
+      <c r="AM43" s="64"/>
+      <c r="AN43" s="64"/>
+      <c r="AO43" s="64"/>
+      <c r="AP43" s="64"/>
+      <c r="AQ43" s="64"/>
+      <c r="AR43" s="64"/>
+      <c r="AS43" s="64"/>
+      <c r="AT43" s="64"/>
+      <c r="AU43" s="64"/>
+      <c r="AV43" s="64"/>
+      <c r="AW43" s="64"/>
+      <c r="AX43" s="64"/>
+      <c r="AY43" s="64"/>
+      <c r="AZ43" s="64"/>
+      <c r="BA43" s="64"/>
+      <c r="BB43" s="64"/>
+      <c r="BC43" s="64"/>
+      <c r="BD43" s="64"/>
+      <c r="BE43" s="64"/>
+      <c r="BF43" s="64"/>
+      <c r="BG43" s="64"/>
+      <c r="BH43" s="64"/>
+      <c r="BI43" s="64"/>
+      <c r="BJ43" s="64"/>
+      <c r="BK43" s="64"/>
+      <c r="BL43" s="64"/>
+      <c r="BM43" s="64"/>
+      <c r="BN43" s="64"/>
+      <c r="BO43" s="64"/>
+      <c r="BP43" s="64"/>
+      <c r="BQ43" s="64"/>
+      <c r="BR43" s="64"/>
+      <c r="BS43" s="64"/>
+      <c r="BT43" s="64"/>
+      <c r="BU43" s="64"/>
+      <c r="BV43" s="64"/>
+      <c r="BW43" s="64"/>
+      <c r="BX43" s="64"/>
+      <c r="BY43" s="64"/>
+      <c r="BZ43" s="64"/>
+      <c r="CA43" s="64"/>
+      <c r="CB43" s="64"/>
+      <c r="CC43" s="64"/>
+      <c r="CD43" s="64"/>
+      <c r="CE43" s="64"/>
+      <c r="CF43" s="64"/>
+      <c r="CG43" s="64"/>
+      <c r="CH43" s="64"/>
+      <c r="CI43" s="64"/>
+      <c r="CJ43" s="64"/>
+      <c r="CK43" s="64"/>
+      <c r="CL43" s="64"/>
+      <c r="CM43" s="64"/>
+      <c r="CN43" s="64"/>
+      <c r="CO43" s="64"/>
+      <c r="CP43" s="64"/>
+      <c r="CQ43" s="64"/>
+      <c r="CR43" s="64"/>
+      <c r="CS43" s="64"/>
+      <c r="CT43" s="64"/>
+      <c r="CU43" s="64"/>
+      <c r="CV43" s="64"/>
+      <c r="CW43" s="64"/>
+      <c r="CX43" s="64"/>
+      <c r="CY43" s="64"/>
+      <c r="CZ43" s="64"/>
+      <c r="DA43" s="64"/>
+      <c r="DB43" s="64"/>
+      <c r="DC43" s="64"/>
+      <c r="DD43" s="64"/>
+      <c r="DE43" s="64"/>
+      <c r="DF43" s="64"/>
+      <c r="DG43" s="64"/>
+      <c r="DH43" s="64"/>
+      <c r="DI43" s="64"/>
     </row>
     <row r="44" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="82"/>
-      <c r="U44" s="82"/>
-      <c r="V44" s="82"/>
-      <c r="W44" s="82"/>
-      <c r="X44" s="82"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="82"/>
-      <c r="AD44" s="82"/>
-      <c r="AE44" s="82"/>
-      <c r="AF44" s="82"/>
-      <c r="AG44" s="82"/>
-      <c r="AH44" s="82"/>
-      <c r="AI44" s="82"/>
-      <c r="AJ44" s="82"/>
-      <c r="AK44" s="82"/>
-      <c r="AL44" s="82"/>
-      <c r="AM44" s="82"/>
-      <c r="AN44" s="82"/>
-      <c r="AO44" s="82"/>
-      <c r="AP44" s="82"/>
-      <c r="AQ44" s="82"/>
-      <c r="AR44" s="82"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="82"/>
-      <c r="AU44" s="82"/>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="82"/>
-      <c r="AX44" s="82"/>
-      <c r="AY44" s="82"/>
-      <c r="AZ44" s="82"/>
-      <c r="BA44" s="82"/>
-      <c r="BB44" s="82"/>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
-      <c r="BE44" s="82"/>
-      <c r="BF44" s="82"/>
-      <c r="BG44" s="82"/>
-      <c r="BH44" s="82"/>
-      <c r="BI44" s="82"/>
-      <c r="BJ44" s="82"/>
-      <c r="BK44" s="82"/>
-      <c r="BL44" s="82"/>
-      <c r="BM44" s="82"/>
-      <c r="BN44" s="82"/>
-      <c r="BO44" s="82"/>
-      <c r="BP44" s="82"/>
-      <c r="BQ44" s="82"/>
-      <c r="BR44" s="82"/>
-      <c r="BS44" s="82"/>
-      <c r="BT44" s="82"/>
-      <c r="BU44" s="82"/>
-      <c r="BV44" s="82"/>
-      <c r="BW44" s="82"/>
-      <c r="BX44" s="82"/>
-      <c r="BY44" s="82"/>
-      <c r="BZ44" s="82"/>
-      <c r="CA44" s="82"/>
-      <c r="CB44" s="82"/>
-      <c r="CC44" s="82"/>
-      <c r="CD44" s="82"/>
-      <c r="CE44" s="82"/>
-      <c r="CF44" s="82"/>
-      <c r="CG44" s="82"/>
-      <c r="CH44" s="82"/>
-      <c r="CI44" s="82"/>
-      <c r="CJ44" s="82"/>
-      <c r="CK44" s="82"/>
-      <c r="CL44" s="82"/>
-      <c r="CM44" s="82"/>
-      <c r="CN44" s="82"/>
-      <c r="CO44" s="82"/>
-      <c r="CP44" s="82"/>
-      <c r="CQ44" s="82"/>
-      <c r="CR44" s="82"/>
-      <c r="CS44" s="82"/>
-      <c r="CT44" s="82"/>
-      <c r="CU44" s="82"/>
-      <c r="CV44" s="82"/>
-      <c r="CW44" s="82"/>
-      <c r="CX44" s="82"/>
-      <c r="CY44" s="82"/>
-      <c r="CZ44" s="82"/>
-      <c r="DA44" s="82"/>
-      <c r="DB44" s="82"/>
-      <c r="DC44" s="82"/>
-      <c r="DD44" s="82"/>
-      <c r="DE44" s="82"/>
-      <c r="DF44" s="82"/>
-      <c r="DG44" s="82"/>
-      <c r="DH44" s="82"/>
-      <c r="DI44" s="82"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="64"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="64"/>
+      <c r="AC44" s="64"/>
+      <c r="AD44" s="64"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="64"/>
+      <c r="AG44" s="64"/>
+      <c r="AH44" s="64"/>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="64"/>
+      <c r="AK44" s="64"/>
+      <c r="AL44" s="64"/>
+      <c r="AM44" s="64"/>
+      <c r="AN44" s="64"/>
+      <c r="AO44" s="64"/>
+      <c r="AP44" s="64"/>
+      <c r="AQ44" s="64"/>
+      <c r="AR44" s="64"/>
+      <c r="AS44" s="64"/>
+      <c r="AT44" s="64"/>
+      <c r="AU44" s="64"/>
+      <c r="AV44" s="64"/>
+      <c r="AW44" s="64"/>
+      <c r="AX44" s="64"/>
+      <c r="AY44" s="64"/>
+      <c r="AZ44" s="64"/>
+      <c r="BA44" s="64"/>
+      <c r="BB44" s="64"/>
+      <c r="BC44" s="64"/>
+      <c r="BD44" s="64"/>
+      <c r="BE44" s="64"/>
+      <c r="BF44" s="64"/>
+      <c r="BG44" s="64"/>
+      <c r="BH44" s="64"/>
+      <c r="BI44" s="64"/>
+      <c r="BJ44" s="64"/>
+      <c r="BK44" s="64"/>
+      <c r="BL44" s="64"/>
+      <c r="BM44" s="64"/>
+      <c r="BN44" s="64"/>
+      <c r="BO44" s="64"/>
+      <c r="BP44" s="64"/>
+      <c r="BQ44" s="64"/>
+      <c r="BR44" s="64"/>
+      <c r="BS44" s="64"/>
+      <c r="BT44" s="64"/>
+      <c r="BU44" s="64"/>
+      <c r="BV44" s="64"/>
+      <c r="BW44" s="64"/>
+      <c r="BX44" s="64"/>
+      <c r="BY44" s="64"/>
+      <c r="BZ44" s="64"/>
+      <c r="CA44" s="64"/>
+      <c r="CB44" s="64"/>
+      <c r="CC44" s="64"/>
+      <c r="CD44" s="64"/>
+      <c r="CE44" s="64"/>
+      <c r="CF44" s="64"/>
+      <c r="CG44" s="64"/>
+      <c r="CH44" s="64"/>
+      <c r="CI44" s="64"/>
+      <c r="CJ44" s="64"/>
+      <c r="CK44" s="64"/>
+      <c r="CL44" s="64"/>
+      <c r="CM44" s="64"/>
+      <c r="CN44" s="64"/>
+      <c r="CO44" s="64"/>
+      <c r="CP44" s="64"/>
+      <c r="CQ44" s="64"/>
+      <c r="CR44" s="64"/>
+      <c r="CS44" s="64"/>
+      <c r="CT44" s="64"/>
+      <c r="CU44" s="64"/>
+      <c r="CV44" s="64"/>
+      <c r="CW44" s="64"/>
+      <c r="CX44" s="64"/>
+      <c r="CY44" s="64"/>
+      <c r="CZ44" s="64"/>
+      <c r="DA44" s="64"/>
+      <c r="DB44" s="64"/>
+      <c r="DC44" s="64"/>
+      <c r="DD44" s="64"/>
+      <c r="DE44" s="64"/>
+      <c r="DF44" s="64"/>
+      <c r="DG44" s="64"/>
+      <c r="DH44" s="64"/>
+      <c r="DI44" s="64"/>
     </row>
     <row r="45" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="82"/>
-      <c r="AA45" s="82"/>
-      <c r="AB45" s="82"/>
-      <c r="AC45" s="82"/>
-      <c r="AD45" s="82"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="82"/>
-      <c r="AG45" s="82"/>
-      <c r="AH45" s="82"/>
-      <c r="AI45" s="82"/>
-      <c r="AJ45" s="82"/>
-      <c r="AK45" s="82"/>
-      <c r="AL45" s="82"/>
-      <c r="AM45" s="82"/>
-      <c r="AN45" s="82"/>
-      <c r="AO45" s="82"/>
-      <c r="AP45" s="82"/>
-      <c r="AQ45" s="82"/>
-      <c r="AR45" s="82"/>
-      <c r="AS45" s="82"/>
-      <c r="AT45" s="82"/>
-      <c r="AU45" s="82"/>
-      <c r="AV45" s="82"/>
-      <c r="AW45" s="82"/>
-      <c r="AX45" s="82"/>
-      <c r="AY45" s="82"/>
-      <c r="AZ45" s="82"/>
-      <c r="BA45" s="82"/>
-      <c r="BB45" s="82"/>
-      <c r="BC45" s="82"/>
-      <c r="BD45" s="82"/>
-      <c r="BE45" s="82"/>
-      <c r="BF45" s="82"/>
-      <c r="BG45" s="82"/>
-      <c r="BH45" s="82"/>
-      <c r="BI45" s="82"/>
-      <c r="BJ45" s="82"/>
-      <c r="BK45" s="82"/>
-      <c r="BL45" s="82"/>
-      <c r="BM45" s="82"/>
-      <c r="BN45" s="82"/>
-      <c r="BO45" s="82"/>
-      <c r="BP45" s="82"/>
-      <c r="BQ45" s="82"/>
-      <c r="BR45" s="82"/>
-      <c r="BS45" s="82"/>
-      <c r="BT45" s="82"/>
-      <c r="BU45" s="82"/>
-      <c r="BV45" s="82"/>
-      <c r="BW45" s="82"/>
-      <c r="BX45" s="82"/>
-      <c r="BY45" s="82"/>
-      <c r="BZ45" s="82"/>
-      <c r="CA45" s="82"/>
-      <c r="CB45" s="82"/>
-      <c r="CC45" s="82"/>
-      <c r="CD45" s="82"/>
-      <c r="CE45" s="82"/>
-      <c r="CF45" s="82"/>
-      <c r="CG45" s="82"/>
-      <c r="CH45" s="82"/>
-      <c r="CI45" s="82"/>
-      <c r="CJ45" s="82"/>
-      <c r="CK45" s="82"/>
-      <c r="CL45" s="82"/>
-      <c r="CM45" s="82"/>
-      <c r="CN45" s="82"/>
-      <c r="CO45" s="82"/>
-      <c r="CP45" s="82"/>
-      <c r="CQ45" s="82"/>
-      <c r="CR45" s="82"/>
-      <c r="CS45" s="82"/>
-      <c r="CT45" s="82"/>
-      <c r="CU45" s="82"/>
-      <c r="CV45" s="82"/>
-      <c r="CW45" s="82"/>
-      <c r="CX45" s="82"/>
-      <c r="CY45" s="82"/>
-      <c r="CZ45" s="82"/>
-      <c r="DA45" s="82"/>
-      <c r="DB45" s="82"/>
-      <c r="DC45" s="82"/>
-      <c r="DD45" s="82"/>
-      <c r="DE45" s="82"/>
-      <c r="DF45" s="82"/>
-      <c r="DG45" s="82"/>
-      <c r="DH45" s="82"/>
-      <c r="DI45" s="82"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="64"/>
+      <c r="AF45" s="64"/>
+      <c r="AG45" s="64"/>
+      <c r="AH45" s="64"/>
+      <c r="AI45" s="64"/>
+      <c r="AJ45" s="64"/>
+      <c r="AK45" s="64"/>
+      <c r="AL45" s="64"/>
+      <c r="AM45" s="64"/>
+      <c r="AN45" s="64"/>
+      <c r="AO45" s="64"/>
+      <c r="AP45" s="64"/>
+      <c r="AQ45" s="64"/>
+      <c r="AR45" s="64"/>
+      <c r="AS45" s="64"/>
+      <c r="AT45" s="64"/>
+      <c r="AU45" s="64"/>
+      <c r="AV45" s="64"/>
+      <c r="AW45" s="64"/>
+      <c r="AX45" s="64"/>
+      <c r="AY45" s="64"/>
+      <c r="AZ45" s="64"/>
+      <c r="BA45" s="64"/>
+      <c r="BB45" s="64"/>
+      <c r="BC45" s="64"/>
+      <c r="BD45" s="64"/>
+      <c r="BE45" s="64"/>
+      <c r="BF45" s="64"/>
+      <c r="BG45" s="64"/>
+      <c r="BH45" s="64"/>
+      <c r="BI45" s="64"/>
+      <c r="BJ45" s="64"/>
+      <c r="BK45" s="64"/>
+      <c r="BL45" s="64"/>
+      <c r="BM45" s="64"/>
+      <c r="BN45" s="64"/>
+      <c r="BO45" s="64"/>
+      <c r="BP45" s="64"/>
+      <c r="BQ45" s="64"/>
+      <c r="BR45" s="64"/>
+      <c r="BS45" s="64"/>
+      <c r="BT45" s="64"/>
+      <c r="BU45" s="64"/>
+      <c r="BV45" s="64"/>
+      <c r="BW45" s="64"/>
+      <c r="BX45" s="64"/>
+      <c r="BY45" s="64"/>
+      <c r="BZ45" s="64"/>
+      <c r="CA45" s="64"/>
+      <c r="CB45" s="64"/>
+      <c r="CC45" s="64"/>
+      <c r="CD45" s="64"/>
+      <c r="CE45" s="64"/>
+      <c r="CF45" s="64"/>
+      <c r="CG45" s="64"/>
+      <c r="CH45" s="64"/>
+      <c r="CI45" s="64"/>
+      <c r="CJ45" s="64"/>
+      <c r="CK45" s="64"/>
+      <c r="CL45" s="64"/>
+      <c r="CM45" s="64"/>
+      <c r="CN45" s="64"/>
+      <c r="CO45" s="64"/>
+      <c r="CP45" s="64"/>
+      <c r="CQ45" s="64"/>
+      <c r="CR45" s="64"/>
+      <c r="CS45" s="64"/>
+      <c r="CT45" s="64"/>
+      <c r="CU45" s="64"/>
+      <c r="CV45" s="64"/>
+      <c r="CW45" s="64"/>
+      <c r="CX45" s="64"/>
+      <c r="CY45" s="64"/>
+      <c r="CZ45" s="64"/>
+      <c r="DA45" s="64"/>
+      <c r="DB45" s="64"/>
+      <c r="DC45" s="64"/>
+      <c r="DD45" s="64"/>
+      <c r="DE45" s="64"/>
+      <c r="DF45" s="64"/>
+      <c r="DG45" s="64"/>
+      <c r="DH45" s="64"/>
+      <c r="DI45" s="64"/>
     </row>
     <row r="46" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="82"/>
-      <c r="AD46" s="82"/>
-      <c r="AE46" s="82"/>
-      <c r="AF46" s="82"/>
-      <c r="AG46" s="82"/>
-      <c r="AH46" s="82"/>
-      <c r="AI46" s="82"/>
-      <c r="AJ46" s="82"/>
-      <c r="AK46" s="82"/>
-      <c r="AL46" s="82"/>
-      <c r="AM46" s="82"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="82"/>
-      <c r="AP46" s="82"/>
-      <c r="AQ46" s="82"/>
-      <c r="AR46" s="82"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="82"/>
-      <c r="AU46" s="82"/>
-      <c r="AV46" s="82"/>
-      <c r="AW46" s="82"/>
-      <c r="AX46" s="82"/>
-      <c r="AY46" s="82"/>
-      <c r="AZ46" s="82"/>
-      <c r="BA46" s="82"/>
-      <c r="BB46" s="82"/>
-      <c r="BC46" s="82"/>
-      <c r="BD46" s="82"/>
-      <c r="BE46" s="82"/>
-      <c r="BF46" s="82"/>
-      <c r="BG46" s="82"/>
-      <c r="BH46" s="82"/>
-      <c r="BI46" s="82"/>
-      <c r="BJ46" s="82"/>
-      <c r="BK46" s="82"/>
-      <c r="BL46" s="82"/>
-      <c r="BM46" s="82"/>
-      <c r="BN46" s="82"/>
-      <c r="BO46" s="82"/>
-      <c r="BP46" s="82"/>
-      <c r="BQ46" s="82"/>
-      <c r="BR46" s="82"/>
-      <c r="BS46" s="82"/>
-      <c r="BT46" s="82"/>
-      <c r="BU46" s="82"/>
-      <c r="BV46" s="82"/>
-      <c r="BW46" s="82"/>
-      <c r="BX46" s="82"/>
-      <c r="BY46" s="82"/>
-      <c r="BZ46" s="82"/>
-      <c r="CA46" s="82"/>
-      <c r="CB46" s="82"/>
-      <c r="CC46" s="82"/>
-      <c r="CD46" s="82"/>
-      <c r="CE46" s="82"/>
-      <c r="CF46" s="82"/>
-      <c r="CG46" s="82"/>
-      <c r="CH46" s="82"/>
-      <c r="CI46" s="82"/>
-      <c r="CJ46" s="82"/>
-      <c r="CK46" s="82"/>
-      <c r="CL46" s="82"/>
-      <c r="CM46" s="82"/>
-      <c r="CN46" s="82"/>
-      <c r="CO46" s="82"/>
-      <c r="CP46" s="82"/>
-      <c r="CQ46" s="82"/>
-      <c r="CR46" s="82"/>
-      <c r="CS46" s="82"/>
-      <c r="CT46" s="82"/>
-      <c r="CU46" s="82"/>
-      <c r="CV46" s="82"/>
-      <c r="CW46" s="82"/>
-      <c r="CX46" s="82"/>
-      <c r="CY46" s="82"/>
-      <c r="CZ46" s="82"/>
-      <c r="DA46" s="82"/>
-      <c r="DB46" s="82"/>
-      <c r="DC46" s="82"/>
-      <c r="DD46" s="82"/>
-      <c r="DE46" s="82"/>
-      <c r="DF46" s="82"/>
-      <c r="DG46" s="82"/>
-      <c r="DH46" s="82"/>
-      <c r="DI46" s="82"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="64"/>
+      <c r="AK46" s="64"/>
+      <c r="AL46" s="64"/>
+      <c r="AM46" s="64"/>
+      <c r="AN46" s="64"/>
+      <c r="AO46" s="64"/>
+      <c r="AP46" s="64"/>
+      <c r="AQ46" s="64"/>
+      <c r="AR46" s="64"/>
+      <c r="AS46" s="64"/>
+      <c r="AT46" s="64"/>
+      <c r="AU46" s="64"/>
+      <c r="AV46" s="64"/>
+      <c r="AW46" s="64"/>
+      <c r="AX46" s="64"/>
+      <c r="AY46" s="64"/>
+      <c r="AZ46" s="64"/>
+      <c r="BA46" s="64"/>
+      <c r="BB46" s="64"/>
+      <c r="BC46" s="64"/>
+      <c r="BD46" s="64"/>
+      <c r="BE46" s="64"/>
+      <c r="BF46" s="64"/>
+      <c r="BG46" s="64"/>
+      <c r="BH46" s="64"/>
+      <c r="BI46" s="64"/>
+      <c r="BJ46" s="64"/>
+      <c r="BK46" s="64"/>
+      <c r="BL46" s="64"/>
+      <c r="BM46" s="64"/>
+      <c r="BN46" s="64"/>
+      <c r="BO46" s="64"/>
+      <c r="BP46" s="64"/>
+      <c r="BQ46" s="64"/>
+      <c r="BR46" s="64"/>
+      <c r="BS46" s="64"/>
+      <c r="BT46" s="64"/>
+      <c r="BU46" s="64"/>
+      <c r="BV46" s="64"/>
+      <c r="BW46" s="64"/>
+      <c r="BX46" s="64"/>
+      <c r="BY46" s="64"/>
+      <c r="BZ46" s="64"/>
+      <c r="CA46" s="64"/>
+      <c r="CB46" s="64"/>
+      <c r="CC46" s="64"/>
+      <c r="CD46" s="64"/>
+      <c r="CE46" s="64"/>
+      <c r="CF46" s="64"/>
+      <c r="CG46" s="64"/>
+      <c r="CH46" s="64"/>
+      <c r="CI46" s="64"/>
+      <c r="CJ46" s="64"/>
+      <c r="CK46" s="64"/>
+      <c r="CL46" s="64"/>
+      <c r="CM46" s="64"/>
+      <c r="CN46" s="64"/>
+      <c r="CO46" s="64"/>
+      <c r="CP46" s="64"/>
+      <c r="CQ46" s="64"/>
+      <c r="CR46" s="64"/>
+      <c r="CS46" s="64"/>
+      <c r="CT46" s="64"/>
+      <c r="CU46" s="64"/>
+      <c r="CV46" s="64"/>
+      <c r="CW46" s="64"/>
+      <c r="CX46" s="64"/>
+      <c r="CY46" s="64"/>
+      <c r="CZ46" s="64"/>
+      <c r="DA46" s="64"/>
+      <c r="DB46" s="64"/>
+      <c r="DC46" s="64"/>
+      <c r="DD46" s="64"/>
+      <c r="DE46" s="64"/>
+      <c r="DF46" s="64"/>
+      <c r="DG46" s="64"/>
+      <c r="DH46" s="64"/>
+      <c r="DI46" s="64"/>
     </row>
     <row r="47" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -7167,116 +7197,146 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="82"/>
-      <c r="Y47" s="82"/>
-      <c r="Z47" s="82"/>
-      <c r="AA47" s="82"/>
-      <c r="AB47" s="82"/>
-      <c r="AC47" s="82"/>
-      <c r="AD47" s="82"/>
-      <c r="AE47" s="82"/>
-      <c r="AF47" s="82"/>
-      <c r="AG47" s="82"/>
-      <c r="AH47" s="82"/>
-      <c r="AI47" s="82"/>
-      <c r="AJ47" s="82"/>
-      <c r="AK47" s="82"/>
-      <c r="AL47" s="82"/>
-      <c r="AM47" s="82"/>
-      <c r="AN47" s="82"/>
-      <c r="AO47" s="82"/>
-      <c r="AP47" s="82"/>
-      <c r="AQ47" s="82"/>
-      <c r="AR47" s="82"/>
-      <c r="AS47" s="82"/>
-      <c r="AT47" s="82"/>
-      <c r="AU47" s="82"/>
-      <c r="AV47" s="82"/>
-      <c r="AW47" s="82"/>
-      <c r="AX47" s="82"/>
-      <c r="AY47" s="82"/>
-      <c r="AZ47" s="82"/>
-      <c r="BA47" s="82"/>
-      <c r="BB47" s="82"/>
-      <c r="BC47" s="82"/>
-      <c r="BD47" s="82"/>
-      <c r="BE47" s="82"/>
-      <c r="BF47" s="82"/>
-      <c r="BG47" s="82"/>
-      <c r="BH47" s="82"/>
-      <c r="BI47" s="82"/>
-      <c r="BJ47" s="82"/>
-      <c r="BK47" s="82"/>
-      <c r="BL47" s="82"/>
-      <c r="BM47" s="82"/>
-      <c r="BN47" s="82"/>
-      <c r="BO47" s="82"/>
-      <c r="BP47" s="82"/>
-      <c r="BQ47" s="82"/>
-      <c r="BR47" s="82"/>
-      <c r="BS47" s="82"/>
-      <c r="BT47" s="82"/>
-      <c r="BU47" s="82"/>
-      <c r="BV47" s="82"/>
-      <c r="BW47" s="82"/>
-      <c r="BX47" s="82"/>
-      <c r="BY47" s="82"/>
-      <c r="BZ47" s="82"/>
-      <c r="CA47" s="82"/>
-      <c r="CB47" s="82"/>
-      <c r="CC47" s="82"/>
-      <c r="CD47" s="82"/>
-      <c r="CE47" s="82"/>
-      <c r="CF47" s="82"/>
-      <c r="CG47" s="82"/>
-      <c r="CH47" s="82"/>
-      <c r="CI47" s="82"/>
-      <c r="CJ47" s="82"/>
-      <c r="CK47" s="82"/>
-      <c r="CL47" s="82"/>
-      <c r="CM47" s="82"/>
-      <c r="CN47" s="82"/>
-      <c r="CO47" s="82"/>
-      <c r="CP47" s="82"/>
-      <c r="CQ47" s="82"/>
-      <c r="CR47" s="82"/>
-      <c r="CS47" s="82"/>
-      <c r="CT47" s="82"/>
-      <c r="CU47" s="82"/>
-      <c r="CV47" s="82"/>
-      <c r="CW47" s="82"/>
-      <c r="CX47" s="82"/>
-      <c r="CY47" s="82"/>
-      <c r="CZ47" s="82"/>
-      <c r="DA47" s="82"/>
-      <c r="DB47" s="82"/>
-      <c r="DC47" s="82"/>
-      <c r="DD47" s="82"/>
-      <c r="DE47" s="82"/>
-      <c r="DF47" s="82"/>
-      <c r="DG47" s="82"/>
-      <c r="DH47" s="82"/>
-      <c r="DI47" s="82"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64" t="str">
+        <f>IF(ISBLANK(D47),"",D47)</f>
+        <v/>
+      </c>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
+      <c r="T47" s="64"/>
+      <c r="U47" s="64"/>
+      <c r="V47" s="64"/>
+      <c r="W47" s="64"/>
+      <c r="X47" s="64" t="str">
+        <f t="shared" ref="X47" si="41">IF(ISBLANK(N47),"",N47)</f>
+        <v/>
+      </c>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="64"/>
+      <c r="AC47" s="64"/>
+      <c r="AD47" s="64"/>
+      <c r="AE47" s="64"/>
+      <c r="AF47" s="64"/>
+      <c r="AG47" s="64"/>
+      <c r="AH47" s="64" t="str">
+        <f t="shared" ref="AH47" si="42">IF(ISBLANK(X47),"",X47)</f>
+        <v/>
+      </c>
+      <c r="AI47" s="64"/>
+      <c r="AJ47" s="64"/>
+      <c r="AK47" s="64"/>
+      <c r="AL47" s="64"/>
+      <c r="AM47" s="64"/>
+      <c r="AN47" s="64"/>
+      <c r="AO47" s="64"/>
+      <c r="AP47" s="64"/>
+      <c r="AQ47" s="64"/>
+      <c r="AR47" s="64" t="str">
+        <f t="shared" ref="AR47" si="43">IF(ISBLANK(AH47),"",AH47)</f>
+        <v/>
+      </c>
+      <c r="AS47" s="64"/>
+      <c r="AT47" s="64"/>
+      <c r="AU47" s="64"/>
+      <c r="AV47" s="64"/>
+      <c r="AW47" s="64"/>
+      <c r="AX47" s="64"/>
+      <c r="AY47" s="64"/>
+      <c r="AZ47" s="64"/>
+      <c r="BA47" s="64"/>
+      <c r="BB47" s="64" t="str">
+        <f t="shared" ref="BB47" si="44">IF(ISBLANK(AR47),"",AR47)</f>
+        <v/>
+      </c>
+      <c r="BC47" s="64"/>
+      <c r="BD47" s="64"/>
+      <c r="BE47" s="64"/>
+      <c r="BF47" s="64"/>
+      <c r="BG47" s="64"/>
+      <c r="BH47" s="64"/>
+      <c r="BI47" s="64"/>
+      <c r="BJ47" s="64"/>
+      <c r="BK47" s="64"/>
+      <c r="BL47" s="64" t="str">
+        <f t="shared" ref="BL47" si="45">IF(ISBLANK(BB47),"",BB47)</f>
+        <v/>
+      </c>
+      <c r="BM47" s="64"/>
+      <c r="BN47" s="64"/>
+      <c r="BO47" s="64"/>
+      <c r="BP47" s="64"/>
+      <c r="BQ47" s="64"/>
+      <c r="BR47" s="64"/>
+      <c r="BS47" s="64"/>
+      <c r="BT47" s="64"/>
+      <c r="BU47" s="64"/>
+      <c r="BV47" s="64" t="str">
+        <f t="shared" ref="BV47" si="46">IF(ISBLANK(BL47),"",BL47)</f>
+        <v/>
+      </c>
+      <c r="BW47" s="64"/>
+      <c r="BX47" s="64"/>
+      <c r="BY47" s="64"/>
+      <c r="BZ47" s="64"/>
+      <c r="CA47" s="64"/>
+      <c r="CB47" s="64"/>
+      <c r="CC47" s="64"/>
+      <c r="CD47" s="64"/>
+      <c r="CE47" s="64"/>
+      <c r="CF47" s="64" t="str">
+        <f t="shared" ref="CF47" si="47">IF(ISBLANK(BV47),"",BV47)</f>
+        <v/>
+      </c>
+      <c r="CG47" s="64"/>
+      <c r="CH47" s="64"/>
+      <c r="CI47" s="64"/>
+      <c r="CJ47" s="64"/>
+      <c r="CK47" s="64"/>
+      <c r="CL47" s="64"/>
+      <c r="CM47" s="64"/>
+      <c r="CN47" s="64"/>
+      <c r="CO47" s="64"/>
+      <c r="CP47" s="64" t="str">
+        <f t="shared" ref="CP47" si="48">IF(ISBLANK(CF47),"",CF47)</f>
+        <v/>
+      </c>
+      <c r="CQ47" s="64"/>
+      <c r="CR47" s="64"/>
+      <c r="CS47" s="64"/>
+      <c r="CT47" s="64"/>
+      <c r="CU47" s="64"/>
+      <c r="CV47" s="64"/>
+      <c r="CW47" s="64"/>
+      <c r="CX47" s="64"/>
+      <c r="CY47" s="64"/>
+      <c r="CZ47" s="64" t="str">
+        <f t="shared" ref="CZ47" si="49">IF(ISBLANK(CP47),"",CP47)</f>
+        <v/>
+      </c>
+      <c r="DA47" s="64"/>
+      <c r="DB47" s="64"/>
+      <c r="DC47" s="64"/>
+      <c r="DD47" s="64"/>
+      <c r="DE47" s="64"/>
+      <c r="DF47" s="64"/>
+      <c r="DG47" s="64"/>
+      <c r="DH47" s="64"/>
+      <c r="DI47" s="64"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -7284,558 +7344,464 @@
         <v>52</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="82"/>
-      <c r="AF48" s="82"/>
-      <c r="AG48" s="82"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
-      <c r="AQ48" s="82"/>
-      <c r="AR48" s="82"/>
-      <c r="AS48" s="82"/>
-      <c r="AT48" s="82"/>
-      <c r="AU48" s="82"/>
-      <c r="AV48" s="82"/>
-      <c r="AW48" s="82"/>
-      <c r="AX48" s="82"/>
-      <c r="AY48" s="82"/>
-      <c r="AZ48" s="82"/>
-      <c r="BA48" s="82"/>
-      <c r="BB48" s="82"/>
-      <c r="BC48" s="82"/>
-      <c r="BD48" s="82"/>
-      <c r="BE48" s="82"/>
-      <c r="BF48" s="82"/>
-      <c r="BG48" s="82"/>
-      <c r="BH48" s="82"/>
-      <c r="BI48" s="82"/>
-      <c r="BJ48" s="82"/>
-      <c r="BK48" s="82"/>
-      <c r="BL48" s="82"/>
-      <c r="BM48" s="82"/>
-      <c r="BN48" s="82"/>
-      <c r="BO48" s="82"/>
-      <c r="BP48" s="82"/>
-      <c r="BQ48" s="82"/>
-      <c r="BR48" s="82"/>
-      <c r="BS48" s="82"/>
-      <c r="BT48" s="82"/>
-      <c r="BU48" s="82"/>
-      <c r="BV48" s="82"/>
-      <c r="BW48" s="82"/>
-      <c r="BX48" s="82"/>
-      <c r="BY48" s="82"/>
-      <c r="BZ48" s="82"/>
-      <c r="CA48" s="82"/>
-      <c r="CB48" s="82"/>
-      <c r="CC48" s="82"/>
-      <c r="CD48" s="82"/>
-      <c r="CE48" s="82"/>
-      <c r="CF48" s="82"/>
-      <c r="CG48" s="82"/>
-      <c r="CH48" s="82"/>
-      <c r="CI48" s="82"/>
-      <c r="CJ48" s="82"/>
-      <c r="CK48" s="82"/>
-      <c r="CL48" s="82"/>
-      <c r="CM48" s="82"/>
-      <c r="CN48" s="82"/>
-      <c r="CO48" s="82"/>
-      <c r="CP48" s="82"/>
-      <c r="CQ48" s="82"/>
-      <c r="CR48" s="82"/>
-      <c r="CS48" s="82"/>
-      <c r="CT48" s="82"/>
-      <c r="CU48" s="82"/>
-      <c r="CV48" s="82"/>
-      <c r="CW48" s="82"/>
-      <c r="CX48" s="82"/>
-      <c r="CY48" s="82"/>
-      <c r="CZ48" s="82"/>
-      <c r="DA48" s="82"/>
-      <c r="DB48" s="82"/>
-      <c r="DC48" s="82"/>
-      <c r="DD48" s="82"/>
-      <c r="DE48" s="82"/>
-      <c r="DF48" s="82"/>
-      <c r="DG48" s="82"/>
-      <c r="DH48" s="82"/>
-      <c r="DI48" s="82"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="64"/>
+      <c r="AC48" s="64"/>
+      <c r="AD48" s="64"/>
+      <c r="AE48" s="64"/>
+      <c r="AF48" s="64"/>
+      <c r="AG48" s="64"/>
+      <c r="AH48" s="64"/>
+      <c r="AI48" s="64"/>
+      <c r="AJ48" s="64"/>
+      <c r="AK48" s="64"/>
+      <c r="AL48" s="64"/>
+      <c r="AM48" s="64"/>
+      <c r="AN48" s="64"/>
+      <c r="AO48" s="64"/>
+      <c r="AP48" s="64"/>
+      <c r="AQ48" s="64"/>
+      <c r="AR48" s="64"/>
+      <c r="AS48" s="64"/>
+      <c r="AT48" s="64"/>
+      <c r="AU48" s="64"/>
+      <c r="AV48" s="64"/>
+      <c r="AW48" s="64"/>
+      <c r="AX48" s="64"/>
+      <c r="AY48" s="64"/>
+      <c r="AZ48" s="64"/>
+      <c r="BA48" s="64"/>
+      <c r="BB48" s="64"/>
+      <c r="BC48" s="64"/>
+      <c r="BD48" s="64"/>
+      <c r="BE48" s="64"/>
+      <c r="BF48" s="64"/>
+      <c r="BG48" s="64"/>
+      <c r="BH48" s="64"/>
+      <c r="BI48" s="64"/>
+      <c r="BJ48" s="64"/>
+      <c r="BK48" s="64"/>
+      <c r="BL48" s="64"/>
+      <c r="BM48" s="64"/>
+      <c r="BN48" s="64"/>
+      <c r="BO48" s="64"/>
+      <c r="BP48" s="64"/>
+      <c r="BQ48" s="64"/>
+      <c r="BR48" s="64"/>
+      <c r="BS48" s="64"/>
+      <c r="BT48" s="64"/>
+      <c r="BU48" s="64"/>
+      <c r="BV48" s="64"/>
+      <c r="BW48" s="64"/>
+      <c r="BX48" s="64"/>
+      <c r="BY48" s="64"/>
+      <c r="BZ48" s="64"/>
+      <c r="CA48" s="64"/>
+      <c r="CB48" s="64"/>
+      <c r="CC48" s="64"/>
+      <c r="CD48" s="64"/>
+      <c r="CE48" s="64"/>
+      <c r="CF48" s="64"/>
+      <c r="CG48" s="64"/>
+      <c r="CH48" s="64"/>
+      <c r="CI48" s="64"/>
+      <c r="CJ48" s="64"/>
+      <c r="CK48" s="64"/>
+      <c r="CL48" s="64"/>
+      <c r="CM48" s="64"/>
+      <c r="CN48" s="64"/>
+      <c r="CO48" s="64"/>
+      <c r="CP48" s="64"/>
+      <c r="CQ48" s="64"/>
+      <c r="CR48" s="64"/>
+      <c r="CS48" s="64"/>
+      <c r="CT48" s="64"/>
+      <c r="CU48" s="64"/>
+      <c r="CV48" s="64"/>
+      <c r="CW48" s="64"/>
+      <c r="CX48" s="64"/>
+      <c r="CY48" s="64"/>
+      <c r="CZ48" s="64"/>
+      <c r="DA48" s="64"/>
+      <c r="DB48" s="64"/>
+      <c r="DC48" s="64"/>
+      <c r="DD48" s="64"/>
+      <c r="DE48" s="64"/>
+      <c r="DF48" s="64"/>
+      <c r="DG48" s="64"/>
+      <c r="DH48" s="64"/>
+      <c r="DI48" s="64"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="82"/>
-      <c r="AM49" s="82"/>
-      <c r="AN49" s="82"/>
-      <c r="AO49" s="82"/>
-      <c r="AP49" s="82"/>
-      <c r="AQ49" s="82"/>
-      <c r="AR49" s="82"/>
-      <c r="AS49" s="82"/>
-      <c r="AT49" s="82"/>
-      <c r="AU49" s="82"/>
-      <c r="AV49" s="82"/>
-      <c r="AW49" s="82"/>
-      <c r="AX49" s="82"/>
-      <c r="AY49" s="82"/>
-      <c r="AZ49" s="82"/>
-      <c r="BA49" s="82"/>
-      <c r="BB49" s="82"/>
-      <c r="BC49" s="82"/>
-      <c r="BD49" s="82"/>
-      <c r="BE49" s="82"/>
-      <c r="BF49" s="82"/>
-      <c r="BG49" s="82"/>
-      <c r="BH49" s="82"/>
-      <c r="BI49" s="82"/>
-      <c r="BJ49" s="82"/>
-      <c r="BK49" s="82"/>
-      <c r="BL49" s="82"/>
-      <c r="BM49" s="82"/>
-      <c r="BN49" s="82"/>
-      <c r="BO49" s="82"/>
-      <c r="BP49" s="82"/>
-      <c r="BQ49" s="82"/>
-      <c r="BR49" s="82"/>
-      <c r="BS49" s="82"/>
-      <c r="BT49" s="82"/>
-      <c r="BU49" s="82"/>
-      <c r="BV49" s="82"/>
-      <c r="BW49" s="82"/>
-      <c r="BX49" s="82"/>
-      <c r="BY49" s="82"/>
-      <c r="BZ49" s="82"/>
-      <c r="CA49" s="82"/>
-      <c r="CB49" s="82"/>
-      <c r="CC49" s="82"/>
-      <c r="CD49" s="82"/>
-      <c r="CE49" s="82"/>
-      <c r="CF49" s="82"/>
-      <c r="CG49" s="82"/>
-      <c r="CH49" s="82"/>
-      <c r="CI49" s="82"/>
-      <c r="CJ49" s="82"/>
-      <c r="CK49" s="82"/>
-      <c r="CL49" s="82"/>
-      <c r="CM49" s="82"/>
-      <c r="CN49" s="82"/>
-      <c r="CO49" s="82"/>
-      <c r="CP49" s="82"/>
-      <c r="CQ49" s="82"/>
-      <c r="CR49" s="82"/>
-      <c r="CS49" s="82"/>
-      <c r="CT49" s="82"/>
-      <c r="CU49" s="82"/>
-      <c r="CV49" s="82"/>
-      <c r="CW49" s="82"/>
-      <c r="CX49" s="82"/>
-      <c r="CY49" s="82"/>
-      <c r="CZ49" s="82"/>
-      <c r="DA49" s="82"/>
-      <c r="DB49" s="82"/>
-      <c r="DC49" s="82"/>
-      <c r="DD49" s="82"/>
-      <c r="DE49" s="82"/>
-      <c r="DF49" s="82"/>
-      <c r="DG49" s="82"/>
-      <c r="DH49" s="82"/>
-      <c r="DI49" s="82"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="64"/>
+      <c r="T49" s="64"/>
+      <c r="U49" s="64"/>
+      <c r="V49" s="64"/>
+      <c r="W49" s="64"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="64"/>
+      <c r="AC49" s="64"/>
+      <c r="AD49" s="64"/>
+      <c r="AE49" s="64"/>
+      <c r="AF49" s="64"/>
+      <c r="AG49" s="64"/>
+      <c r="AH49" s="64"/>
+      <c r="AI49" s="64"/>
+      <c r="AJ49" s="64"/>
+      <c r="AK49" s="64"/>
+      <c r="AL49" s="64"/>
+      <c r="AM49" s="64"/>
+      <c r="AN49" s="64"/>
+      <c r="AO49" s="64"/>
+      <c r="AP49" s="64"/>
+      <c r="AQ49" s="64"/>
+      <c r="AR49" s="64"/>
+      <c r="AS49" s="64"/>
+      <c r="AT49" s="64"/>
+      <c r="AU49" s="64"/>
+      <c r="AV49" s="64"/>
+      <c r="AW49" s="64"/>
+      <c r="AX49" s="64"/>
+      <c r="AY49" s="64"/>
+      <c r="AZ49" s="64"/>
+      <c r="BA49" s="64"/>
+      <c r="BB49" s="64"/>
+      <c r="BC49" s="64"/>
+      <c r="BD49" s="64"/>
+      <c r="BE49" s="64"/>
+      <c r="BF49" s="64"/>
+      <c r="BG49" s="64"/>
+      <c r="BH49" s="64"/>
+      <c r="BI49" s="64"/>
+      <c r="BJ49" s="64"/>
+      <c r="BK49" s="64"/>
+      <c r="BL49" s="64"/>
+      <c r="BM49" s="64"/>
+      <c r="BN49" s="64"/>
+      <c r="BO49" s="64"/>
+      <c r="BP49" s="64"/>
+      <c r="BQ49" s="64"/>
+      <c r="BR49" s="64"/>
+      <c r="BS49" s="64"/>
+      <c r="BT49" s="64"/>
+      <c r="BU49" s="64"/>
+      <c r="BV49" s="64"/>
+      <c r="BW49" s="64"/>
+      <c r="BX49" s="64"/>
+      <c r="BY49" s="64"/>
+      <c r="BZ49" s="64"/>
+      <c r="CA49" s="64"/>
+      <c r="CB49" s="64"/>
+      <c r="CC49" s="64"/>
+      <c r="CD49" s="64"/>
+      <c r="CE49" s="64"/>
+      <c r="CF49" s="64"/>
+      <c r="CG49" s="64"/>
+      <c r="CH49" s="64"/>
+      <c r="CI49" s="64"/>
+      <c r="CJ49" s="64"/>
+      <c r="CK49" s="64"/>
+      <c r="CL49" s="64"/>
+      <c r="CM49" s="64"/>
+      <c r="CN49" s="64"/>
+      <c r="CO49" s="64"/>
+      <c r="CP49" s="64"/>
+      <c r="CQ49" s="64"/>
+      <c r="CR49" s="64"/>
+      <c r="CS49" s="64"/>
+      <c r="CT49" s="64"/>
+      <c r="CU49" s="64"/>
+      <c r="CV49" s="64"/>
+      <c r="CW49" s="64"/>
+      <c r="CX49" s="64"/>
+      <c r="CY49" s="64"/>
+      <c r="CZ49" s="64"/>
+      <c r="DA49" s="64"/>
+      <c r="DB49" s="64"/>
+      <c r="DC49" s="64"/>
+      <c r="DD49" s="64"/>
+      <c r="DE49" s="64"/>
+      <c r="DF49" s="64"/>
+      <c r="DG49" s="64"/>
+      <c r="DH49" s="64"/>
+      <c r="DI49" s="64"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
-      <c r="H50" s="82"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
-      <c r="Q50" s="82"/>
-      <c r="R50" s="82"/>
-      <c r="S50" s="82"/>
-      <c r="T50" s="82"/>
-      <c r="U50" s="82"/>
-      <c r="V50" s="82"/>
-      <c r="W50" s="82"/>
-      <c r="X50" s="82"/>
-      <c r="Y50" s="82"/>
-      <c r="Z50" s="82"/>
-      <c r="AA50" s="82"/>
-      <c r="AB50" s="82"/>
-      <c r="AC50" s="82"/>
-      <c r="AD50" s="82"/>
-      <c r="AE50" s="82"/>
-      <c r="AF50" s="82"/>
-      <c r="AG50" s="82"/>
-      <c r="AH50" s="82"/>
-      <c r="AI50" s="82"/>
-      <c r="AJ50" s="82"/>
-      <c r="AK50" s="82"/>
-      <c r="AL50" s="82"/>
-      <c r="AM50" s="82"/>
-      <c r="AN50" s="82"/>
-      <c r="AO50" s="82"/>
-      <c r="AP50" s="82"/>
-      <c r="AQ50" s="82"/>
-      <c r="AR50" s="82"/>
-      <c r="AS50" s="82"/>
-      <c r="AT50" s="82"/>
-      <c r="AU50" s="82"/>
-      <c r="AV50" s="82"/>
-      <c r="AW50" s="82"/>
-      <c r="AX50" s="82"/>
-      <c r="AY50" s="82"/>
-      <c r="AZ50" s="82"/>
-      <c r="BA50" s="82"/>
-      <c r="BB50" s="82"/>
-      <c r="BC50" s="82"/>
-      <c r="BD50" s="82"/>
-      <c r="BE50" s="82"/>
-      <c r="BF50" s="82"/>
-      <c r="BG50" s="82"/>
-      <c r="BH50" s="82"/>
-      <c r="BI50" s="82"/>
-      <c r="BJ50" s="82"/>
-      <c r="BK50" s="82"/>
-      <c r="BL50" s="82"/>
-      <c r="BM50" s="82"/>
-      <c r="BN50" s="82"/>
-      <c r="BO50" s="82"/>
-      <c r="BP50" s="82"/>
-      <c r="BQ50" s="82"/>
-      <c r="BR50" s="82"/>
-      <c r="BS50" s="82"/>
-      <c r="BT50" s="82"/>
-      <c r="BU50" s="82"/>
-      <c r="BV50" s="82"/>
-      <c r="BW50" s="82"/>
-      <c r="BX50" s="82"/>
-      <c r="BY50" s="82"/>
-      <c r="BZ50" s="82"/>
-      <c r="CA50" s="82"/>
-      <c r="CB50" s="82"/>
-      <c r="CC50" s="82"/>
-      <c r="CD50" s="82"/>
-      <c r="CE50" s="82"/>
-      <c r="CF50" s="82"/>
-      <c r="CG50" s="82"/>
-      <c r="CH50" s="82"/>
-      <c r="CI50" s="82"/>
-      <c r="CJ50" s="82"/>
-      <c r="CK50" s="82"/>
-      <c r="CL50" s="82"/>
-      <c r="CM50" s="82"/>
-      <c r="CN50" s="82"/>
-      <c r="CO50" s="82"/>
-      <c r="CP50" s="82"/>
-      <c r="CQ50" s="82"/>
-      <c r="CR50" s="82"/>
-      <c r="CS50" s="82"/>
-      <c r="CT50" s="82"/>
-      <c r="CU50" s="82"/>
-      <c r="CV50" s="82"/>
-      <c r="CW50" s="82"/>
-      <c r="CX50" s="82"/>
-      <c r="CY50" s="82"/>
-      <c r="CZ50" s="82"/>
-      <c r="DA50" s="82"/>
-      <c r="DB50" s="82"/>
-      <c r="DC50" s="82"/>
-      <c r="DD50" s="82"/>
-      <c r="DE50" s="82"/>
-      <c r="DF50" s="82"/>
-      <c r="DG50" s="82"/>
-      <c r="DH50" s="82"/>
-      <c r="DI50" s="82"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="64"/>
+      <c r="T50" s="64"/>
+      <c r="U50" s="64"/>
+      <c r="V50" s="64"/>
+      <c r="W50" s="64"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64"/>
+      <c r="AB50" s="64"/>
+      <c r="AC50" s="64"/>
+      <c r="AD50" s="64"/>
+      <c r="AE50" s="64"/>
+      <c r="AF50" s="64"/>
+      <c r="AG50" s="64"/>
+      <c r="AH50" s="64"/>
+      <c r="AI50" s="64"/>
+      <c r="AJ50" s="64"/>
+      <c r="AK50" s="64"/>
+      <c r="AL50" s="64"/>
+      <c r="AM50" s="64"/>
+      <c r="AN50" s="64"/>
+      <c r="AO50" s="64"/>
+      <c r="AP50" s="64"/>
+      <c r="AQ50" s="64"/>
+      <c r="AR50" s="64"/>
+      <c r="AS50" s="64"/>
+      <c r="AT50" s="64"/>
+      <c r="AU50" s="64"/>
+      <c r="AV50" s="64"/>
+      <c r="AW50" s="64"/>
+      <c r="AX50" s="64"/>
+      <c r="AY50" s="64"/>
+      <c r="AZ50" s="64"/>
+      <c r="BA50" s="64"/>
+      <c r="BB50" s="64"/>
+      <c r="BC50" s="64"/>
+      <c r="BD50" s="64"/>
+      <c r="BE50" s="64"/>
+      <c r="BF50" s="64"/>
+      <c r="BG50" s="64"/>
+      <c r="BH50" s="64"/>
+      <c r="BI50" s="64"/>
+      <c r="BJ50" s="64"/>
+      <c r="BK50" s="64"/>
+      <c r="BL50" s="64"/>
+      <c r="BM50" s="64"/>
+      <c r="BN50" s="64"/>
+      <c r="BO50" s="64"/>
+      <c r="BP50" s="64"/>
+      <c r="BQ50" s="64"/>
+      <c r="BR50" s="64"/>
+      <c r="BS50" s="64"/>
+      <c r="BT50" s="64"/>
+      <c r="BU50" s="64"/>
+      <c r="BV50" s="64"/>
+      <c r="BW50" s="64"/>
+      <c r="BX50" s="64"/>
+      <c r="BY50" s="64"/>
+      <c r="BZ50" s="64"/>
+      <c r="CA50" s="64"/>
+      <c r="CB50" s="64"/>
+      <c r="CC50" s="64"/>
+      <c r="CD50" s="64"/>
+      <c r="CE50" s="64"/>
+      <c r="CF50" s="64"/>
+      <c r="CG50" s="64"/>
+      <c r="CH50" s="64"/>
+      <c r="CI50" s="64"/>
+      <c r="CJ50" s="64"/>
+      <c r="CK50" s="64"/>
+      <c r="CL50" s="64"/>
+      <c r="CM50" s="64"/>
+      <c r="CN50" s="64"/>
+      <c r="CO50" s="64"/>
+      <c r="CP50" s="64"/>
+      <c r="CQ50" s="64"/>
+      <c r="CR50" s="64"/>
+      <c r="CS50" s="64"/>
+      <c r="CT50" s="64"/>
+      <c r="CU50" s="64"/>
+      <c r="CV50" s="64"/>
+      <c r="CW50" s="64"/>
+      <c r="CX50" s="64"/>
+      <c r="CY50" s="64"/>
+      <c r="CZ50" s="64"/>
+      <c r="DA50" s="64"/>
+      <c r="DB50" s="64"/>
+      <c r="DC50" s="64"/>
+      <c r="DD50" s="64"/>
+      <c r="DE50" s="64"/>
+      <c r="DF50" s="64"/>
+      <c r="DG50" s="64"/>
+      <c r="DH50" s="64"/>
+      <c r="DI50" s="64"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="82"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="82"/>
-      <c r="O51" s="82"/>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
-      <c r="V51" s="82"/>
-      <c r="W51" s="82"/>
-      <c r="X51" s="82"/>
-      <c r="Y51" s="82"/>
-      <c r="Z51" s="82"/>
-      <c r="AA51" s="82"/>
-      <c r="AB51" s="82"/>
-      <c r="AC51" s="82"/>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="82"/>
-      <c r="AF51" s="82"/>
-      <c r="AG51" s="82"/>
-      <c r="AH51" s="82"/>
-      <c r="AI51" s="82"/>
-      <c r="AJ51" s="82"/>
-      <c r="AK51" s="82"/>
-      <c r="AL51" s="82"/>
-      <c r="AM51" s="82"/>
-      <c r="AN51" s="82"/>
-      <c r="AO51" s="82"/>
-      <c r="AP51" s="82"/>
-      <c r="AQ51" s="82"/>
-      <c r="AR51" s="82"/>
-      <c r="AS51" s="82"/>
-      <c r="AT51" s="82"/>
-      <c r="AU51" s="82"/>
-      <c r="AV51" s="82"/>
-      <c r="AW51" s="82"/>
-      <c r="AX51" s="82"/>
-      <c r="AY51" s="82"/>
-      <c r="AZ51" s="82"/>
-      <c r="BA51" s="82"/>
-      <c r="BB51" s="82"/>
-      <c r="BC51" s="82"/>
-      <c r="BD51" s="82"/>
-      <c r="BE51" s="82"/>
-      <c r="BF51" s="82"/>
-      <c r="BG51" s="82"/>
-      <c r="BH51" s="82"/>
-      <c r="BI51" s="82"/>
-      <c r="BJ51" s="82"/>
-      <c r="BK51" s="82"/>
-      <c r="BL51" s="82"/>
-      <c r="BM51" s="82"/>
-      <c r="BN51" s="82"/>
-      <c r="BO51" s="82"/>
-      <c r="BP51" s="82"/>
-      <c r="BQ51" s="82"/>
-      <c r="BR51" s="82"/>
-      <c r="BS51" s="82"/>
-      <c r="BT51" s="82"/>
-      <c r="BU51" s="82"/>
-      <c r="BV51" s="82"/>
-      <c r="BW51" s="82"/>
-      <c r="BX51" s="82"/>
-      <c r="BY51" s="82"/>
-      <c r="BZ51" s="82"/>
-      <c r="CA51" s="82"/>
-      <c r="CB51" s="82"/>
-      <c r="CC51" s="82"/>
-      <c r="CD51" s="82"/>
-      <c r="CE51" s="82"/>
-      <c r="CF51" s="82"/>
-      <c r="CG51" s="82"/>
-      <c r="CH51" s="82"/>
-      <c r="CI51" s="82"/>
-      <c r="CJ51" s="82"/>
-      <c r="CK51" s="82"/>
-      <c r="CL51" s="82"/>
-      <c r="CM51" s="82"/>
-      <c r="CN51" s="82"/>
-      <c r="CO51" s="82"/>
-      <c r="CP51" s="82"/>
-      <c r="CQ51" s="82"/>
-      <c r="CR51" s="82"/>
-      <c r="CS51" s="82"/>
-      <c r="CT51" s="82"/>
-      <c r="CU51" s="82"/>
-      <c r="CV51" s="82"/>
-      <c r="CW51" s="82"/>
-      <c r="CX51" s="82"/>
-      <c r="CY51" s="82"/>
-      <c r="CZ51" s="82"/>
-      <c r="DA51" s="82"/>
-      <c r="DB51" s="82"/>
-      <c r="DC51" s="82"/>
-      <c r="DD51" s="82"/>
-      <c r="DE51" s="82"/>
-      <c r="DF51" s="82"/>
-      <c r="DG51" s="82"/>
-      <c r="DH51" s="82"/>
-      <c r="DI51" s="82"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="64"/>
+      <c r="AI51" s="64"/>
+      <c r="AJ51" s="64"/>
+      <c r="AK51" s="64"/>
+      <c r="AL51" s="64"/>
+      <c r="AM51" s="64"/>
+      <c r="AN51" s="64"/>
+      <c r="AO51" s="64"/>
+      <c r="AP51" s="64"/>
+      <c r="AQ51" s="64"/>
+      <c r="AR51" s="64"/>
+      <c r="AS51" s="64"/>
+      <c r="AT51" s="64"/>
+      <c r="AU51" s="64"/>
+      <c r="AV51" s="64"/>
+      <c r="AW51" s="64"/>
+      <c r="AX51" s="64"/>
+      <c r="AY51" s="64"/>
+      <c r="AZ51" s="64"/>
+      <c r="BA51" s="64"/>
+      <c r="BB51" s="64"/>
+      <c r="BC51" s="64"/>
+      <c r="BD51" s="64"/>
+      <c r="BE51" s="64"/>
+      <c r="BF51" s="64"/>
+      <c r="BG51" s="64"/>
+      <c r="BH51" s="64"/>
+      <c r="BI51" s="64"/>
+      <c r="BJ51" s="64"/>
+      <c r="BK51" s="64"/>
+      <c r="BL51" s="64"/>
+      <c r="BM51" s="64"/>
+      <c r="BN51" s="64"/>
+      <c r="BO51" s="64"/>
+      <c r="BP51" s="64"/>
+      <c r="BQ51" s="64"/>
+      <c r="BR51" s="64"/>
+      <c r="BS51" s="64"/>
+      <c r="BT51" s="64"/>
+      <c r="BU51" s="64"/>
+      <c r="BV51" s="64"/>
+      <c r="BW51" s="64"/>
+      <c r="BX51" s="64"/>
+      <c r="BY51" s="64"/>
+      <c r="BZ51" s="64"/>
+      <c r="CA51" s="64"/>
+      <c r="CB51" s="64"/>
+      <c r="CC51" s="64"/>
+      <c r="CD51" s="64"/>
+      <c r="CE51" s="64"/>
+      <c r="CF51" s="64"/>
+      <c r="CG51" s="64"/>
+      <c r="CH51" s="64"/>
+      <c r="CI51" s="64"/>
+      <c r="CJ51" s="64"/>
+      <c r="CK51" s="64"/>
+      <c r="CL51" s="64"/>
+      <c r="CM51" s="64"/>
+      <c r="CN51" s="64"/>
+      <c r="CO51" s="64"/>
+      <c r="CP51" s="64"/>
+      <c r="CQ51" s="64"/>
+      <c r="CR51" s="64"/>
+      <c r="CS51" s="64"/>
+      <c r="CT51" s="64"/>
+      <c r="CU51" s="64"/>
+      <c r="CV51" s="64"/>
+      <c r="CW51" s="64"/>
+      <c r="CX51" s="64"/>
+      <c r="CY51" s="64"/>
+      <c r="CZ51" s="64"/>
+      <c r="DA51" s="64"/>
+      <c r="DB51" s="64"/>
+      <c r="DC51" s="64"/>
+      <c r="DD51" s="64"/>
+      <c r="DE51" s="64"/>
+      <c r="DF51" s="64"/>
+      <c r="DG51" s="64"/>
+      <c r="DH51" s="64"/>
+      <c r="DI51" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CZ42:DI46"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="BB42:BK46"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL42:BU46"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV42:CE46"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF42:CO46"/>
-    <mergeCell ref="CF47:CO51"/>
-    <mergeCell ref="CP42:CY46"/>
-    <mergeCell ref="CP47:CY51"/>
-    <mergeCell ref="D42:M46"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N42:W46"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X42:AG46"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH42:AQ46"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR42:BA46"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AX2:AY3"/>
-    <mergeCell ref="AZ2:BA3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AD2:AE3"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="U6:V6"/>
@@ -7853,6 +7819,100 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AD2:AE3"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AX2:AY3"/>
+    <mergeCell ref="AZ2:BA3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="D42:M46"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N42:W46"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X42:AG46"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH42:AQ46"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR42:BA46"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="CZ42:DI46"/>
+    <mergeCell ref="CZ47:DI51"/>
+    <mergeCell ref="BB42:BK46"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL42:BU46"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV42:CE46"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF42:CO46"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="CP42:CY46"/>
+    <mergeCell ref="CP47:CY51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7870,9 +7930,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8038,26 +8101,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8081,9 +8133,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/OT_LoS.xlsx
+++ b/lib/PHPExcel/templates/OT_LoS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="49">
   <si>
     <t>Type éprouvette</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>(mm)</t>
-  </si>
-  <si>
-    <t>(%)</t>
   </si>
   <si>
     <t>Cycle passage cont. eff.</t>
@@ -118,19 +115,7 @@
     <t>Température (°C)</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>Nbre Cycles estimés</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>Dim 2</t>
@@ -156,9 +141,6 @@
   </si>
   <si>
     <t>Comptage essai</t>
-  </si>
-  <si>
-    <t>De/2</t>
   </si>
   <si>
     <t>Prefixe</t>
@@ -190,6 +172,12 @@
   <si>
     <t>Job</t>
   </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +189,7 @@
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0##"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -284,6 +272,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -516,13 +516,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -609,20 +624,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,13 +686,22 @@
     <xf numFmtId="167" fontId="10" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,9 +734,6 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,8 +743,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="1"/>
@@ -1357,7 +1378,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:DI51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1376,7 +1399,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1525,162 +1548,162 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="81"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="72"/>
+      <c r="J2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="80"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="68"/>
-      <c r="V2" s="71" t="str">
+      <c r="T2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="67"/>
+      <c r="V2" s="70" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
       </c>
-      <c r="W2" s="72"/>
+      <c r="W2" s="71"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="71" t="str">
+      <c r="AD2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="70" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
       </c>
-      <c r="AG2" s="72"/>
+      <c r="AG2" s="71"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="71" t="str">
+      <c r="AN2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="70" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
       </c>
-      <c r="AQ2" s="72"/>
+      <c r="AQ2" s="71"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="71" t="str">
+      <c r="AX2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="70" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
       </c>
-      <c r="BA2" s="72"/>
+      <c r="BA2" s="71"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="71" t="str">
+      <c r="BH2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="70" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
       </c>
-      <c r="BK2" s="72"/>
+      <c r="BK2" s="71"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS2" s="68"/>
-      <c r="BT2" s="71" t="str">
+      <c r="BR2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS2" s="67"/>
+      <c r="BT2" s="70" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
       </c>
-      <c r="BU2" s="72"/>
+      <c r="BU2" s="71"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="CC2" s="68"/>
-      <c r="CD2" s="71" t="str">
+      <c r="CB2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="70" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
       </c>
-      <c r="CE2" s="72"/>
+      <c r="CE2" s="71"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="CM2" s="68"/>
-      <c r="CN2" s="71" t="str">
+      <c r="CL2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="70" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
       </c>
-      <c r="CO2" s="72"/>
+      <c r="CO2" s="71"/>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="CW2" s="68"/>
-      <c r="CX2" s="71" t="str">
+      <c r="CV2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="70" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
       </c>
-      <c r="CY2" s="72"/>
+      <c r="CY2" s="71"/>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="DG2" s="68"/>
-      <c r="DH2" s="71" t="str">
+      <c r="DF2" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="DG2" s="67"/>
+      <c r="DH2" s="70" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
       </c>
-      <c r="DI2" s="72"/>
+      <c r="DI2" s="71"/>
     </row>
     <row r="3" spans="1:113" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1692,144 +1715,144 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="74"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="73" t="str">
+      <c r="T3" s="68"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="72" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W3" s="74"/>
+      <c r="W3" s="73"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="73" t="str">
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG3" s="74"/>
+      <c r="AG3" s="73"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="73" t="str">
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="72" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="74"/>
+      <c r="AQ3" s="73"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="73" t="str">
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="72" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BA3" s="74"/>
+      <c r="BA3" s="73"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="70"/>
-      <c r="BJ3" s="73" t="str">
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="72" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK3" s="74"/>
+      <c r="BK3" s="73"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="70"/>
-      <c r="BT3" s="73" t="str">
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="72" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BU3" s="74"/>
+      <c r="BU3" s="73"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="70"/>
-      <c r="CD3" s="73" t="str">
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="72" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="CE3" s="74"/>
+      <c r="CE3" s="73"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="70"/>
-      <c r="CN3" s="73" t="str">
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="72" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="CO3" s="74"/>
+      <c r="CO3" s="73"/>
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="70"/>
-      <c r="CX3" s="73" t="str">
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="72" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CY3" s="74"/>
+      <c r="CY3" s="73"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="69"/>
-      <c r="DG3" s="70"/>
-      <c r="DH3" s="73" t="str">
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="69"/>
+      <c r="DH3" s="72" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="DI3" s="74"/>
+      <c r="DI3" s="73"/>
     </row>
     <row r="4" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="1"/>
@@ -1838,214 +1861,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="80"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="6"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="75" t="str">
+      <c r="Q4" s="74" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="75"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="76" t="str">
+      <c r="U4" s="75" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="76"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="6"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="75" t="str">
+      <c r="AA4" s="74" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="75"/>
+      <c r="AB4" s="74"/>
       <c r="AC4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="76" t="str">
+      <c r="AE4" s="75" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="76"/>
+      <c r="AF4" s="75"/>
       <c r="AG4" s="6"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="75" t="str">
+      <c r="AK4" s="74" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="75"/>
+      <c r="AL4" s="74"/>
       <c r="AM4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="76" t="str">
+      <c r="AO4" s="75" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="76"/>
+      <c r="AP4" s="75"/>
       <c r="AQ4" s="6"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="75" t="str">
+      <c r="AU4" s="74" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="75"/>
+      <c r="AV4" s="74"/>
       <c r="AW4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="76" t="str">
+      <c r="AY4" s="75" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="76"/>
+      <c r="AZ4" s="75"/>
       <c r="BA4" s="6"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="75" t="str">
+      <c r="BE4" s="74" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="75"/>
+      <c r="BF4" s="74"/>
       <c r="BG4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="76" t="str">
+      <c r="BI4" s="75" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="76"/>
+      <c r="BJ4" s="75"/>
       <c r="BK4" s="6"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="75" t="str">
+      <c r="BO4" s="74" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="75"/>
+      <c r="BP4" s="74"/>
       <c r="BQ4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="76" t="str">
+      <c r="BS4" s="75" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="76"/>
+      <c r="BT4" s="75"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="75" t="str">
+      <c r="BY4" s="74" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="75"/>
+      <c r="BZ4" s="74"/>
       <c r="CA4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="76" t="str">
+      <c r="CC4" s="75" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="76"/>
+      <c r="CD4" s="75"/>
       <c r="CE4" s="6"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="75" t="str">
+      <c r="CI4" s="74" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="75"/>
+      <c r="CJ4" s="74"/>
       <c r="CK4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="76" t="str">
+      <c r="CM4" s="75" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="76"/>
+      <c r="CN4" s="75"/>
       <c r="CO4" s="6"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="75" t="str">
+      <c r="CS4" s="74" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="75"/>
+      <c r="CT4" s="74"/>
       <c r="CU4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="76" t="str">
+      <c r="CW4" s="75" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="76"/>
+      <c r="CX4" s="75"/>
       <c r="CY4" s="6"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="75" t="str">
+      <c r="DC4" s="74" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="75"/>
+      <c r="DD4" s="74"/>
       <c r="DE4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="76" t="str">
+      <c r="DG4" s="75" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="76"/>
+      <c r="DH4" s="75"/>
       <c r="DI4" s="6"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,219 +2080,219 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="80"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="6"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="77" t="str">
+      <c r="Q5" s="79" t="str">
         <f t="shared" ref="Q5:Q6" si="20">IF(ISBLANK(G5),"",G5)</f>
         <v/>
       </c>
-      <c r="R5" s="77"/>
+      <c r="R5" s="79"/>
       <c r="S5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="66" t="str">
+      <c r="U5" s="64" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="6"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="77" t="str">
+      <c r="AA5" s="79" t="str">
         <f t="shared" ref="AA5:AA6" si="21">IF(ISBLANK(Q5),"",Q5)</f>
         <v/>
       </c>
-      <c r="AB5" s="77"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="66" t="str">
+      <c r="AE5" s="64" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="66"/>
+      <c r="AF5" s="64"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="77" t="str">
+      <c r="AK5" s="79" t="str">
         <f t="shared" ref="AK5:AK6" si="22">IF(ISBLANK(AA5),"",AA5)</f>
         <v/>
       </c>
-      <c r="AL5" s="77"/>
+      <c r="AL5" s="79"/>
       <c r="AM5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="66" t="str">
+      <c r="AO5" s="64" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="66"/>
+      <c r="AP5" s="64"/>
       <c r="AQ5" s="6"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="77" t="str">
+      <c r="AU5" s="79" t="str">
         <f t="shared" ref="AU5:AU6" si="23">IF(ISBLANK(AK5),"",AK5)</f>
         <v/>
       </c>
-      <c r="AV5" s="77"/>
+      <c r="AV5" s="79"/>
       <c r="AW5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="66" t="str">
+      <c r="AY5" s="64" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="66"/>
+      <c r="AZ5" s="64"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="77" t="str">
+      <c r="BE5" s="79" t="str">
         <f t="shared" ref="BE5:BE6" si="24">IF(ISBLANK(AU5),"",AU5)</f>
         <v/>
       </c>
-      <c r="BF5" s="77"/>
+      <c r="BF5" s="79"/>
       <c r="BG5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="66" t="str">
+      <c r="BI5" s="64" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="66"/>
+      <c r="BJ5" s="64"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BN5" s="1"/>
-      <c r="BO5" s="77" t="str">
+      <c r="BO5" s="79" t="str">
         <f t="shared" ref="BO5:BO6" si="25">IF(ISBLANK(BE5),"",BE5)</f>
         <v/>
       </c>
-      <c r="BP5" s="77"/>
+      <c r="BP5" s="79"/>
       <c r="BQ5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="66" t="str">
+      <c r="BS5" s="64" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="66"/>
+      <c r="BT5" s="64"/>
       <c r="BU5" s="6"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="77" t="str">
+      <c r="BY5" s="79" t="str">
         <f t="shared" ref="BY5:BY6" si="26">IF(ISBLANK(BO5),"",BO5)</f>
         <v/>
       </c>
-      <c r="BZ5" s="77"/>
+      <c r="BZ5" s="79"/>
       <c r="CA5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="66" t="str">
+      <c r="CC5" s="64" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="66"/>
+      <c r="CD5" s="64"/>
       <c r="CE5" s="6"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CH5" s="1"/>
-      <c r="CI5" s="77" t="str">
+      <c r="CI5" s="79" t="str">
         <f t="shared" ref="CI5:CI6" si="27">IF(ISBLANK(BY5),"",BY5)</f>
         <v/>
       </c>
-      <c r="CJ5" s="77"/>
+      <c r="CJ5" s="79"/>
       <c r="CK5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="66" t="str">
+      <c r="CM5" s="64" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="66"/>
+      <c r="CN5" s="64"/>
       <c r="CO5" s="6"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="77" t="str">
+      <c r="CS5" s="79" t="str">
         <f t="shared" ref="CS5:CS6" si="28">IF(ISBLANK(CI5),"",CI5)</f>
         <v/>
       </c>
-      <c r="CT5" s="77"/>
+      <c r="CT5" s="79"/>
       <c r="CU5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="66" t="str">
+      <c r="CW5" s="64" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="66"/>
+      <c r="CX5" s="64"/>
       <c r="CY5" s="6"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="77" t="str">
+      <c r="DC5" s="79" t="str">
         <f t="shared" ref="DC5:DC6" si="29">IF(ISBLANK(CS5),"",CS5)</f>
         <v/>
       </c>
-      <c r="DD5" s="77"/>
+      <c r="DD5" s="79"/>
       <c r="DE5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="66" t="str">
+      <c r="DG5" s="64" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="66"/>
+      <c r="DH5" s="64"/>
       <c r="DI5" s="6"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2278,14 +2301,14 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="6"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
@@ -2301,11 +2324,11 @@
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="66" t="str">
+      <c r="U6" s="64" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="66"/>
+      <c r="V6" s="64"/>
       <c r="W6" s="6"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
@@ -2321,11 +2344,11 @@
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="66" t="str">
+      <c r="AE6" s="64" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="66"/>
+      <c r="AF6" s="64"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
@@ -2341,11 +2364,11 @@
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="66" t="str">
+      <c r="AO6" s="64" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="66"/>
+      <c r="AP6" s="64"/>
       <c r="AQ6" s="6"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
@@ -2361,11 +2384,11 @@
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="66" t="str">
+      <c r="AY6" s="64" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="66"/>
+      <c r="AZ6" s="64"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
@@ -2381,11 +2404,11 @@
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="66" t="str">
+      <c r="BI6" s="64" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="66"/>
+      <c r="BJ6" s="64"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
@@ -2401,11 +2424,11 @@
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="66" t="str">
+      <c r="BS6" s="64" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="66"/>
+      <c r="BT6" s="64"/>
       <c r="BU6" s="6"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
@@ -2421,11 +2444,11 @@
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="66" t="str">
+      <c r="CC6" s="64" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="66"/>
+      <c r="CD6" s="64"/>
       <c r="CE6" s="6"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
@@ -2441,11 +2464,11 @@
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="66" t="str">
+      <c r="CM6" s="64" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="66"/>
+      <c r="CN6" s="64"/>
       <c r="CO6" s="6"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
@@ -2461,11 +2484,11 @@
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="66" t="str">
+      <c r="CW6" s="64" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="66"/>
+      <c r="CX6" s="64"/>
       <c r="CY6" s="6"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
@@ -2481,11 +2504,11 @@
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="66" t="str">
+      <c r="DG6" s="64" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="66"/>
+      <c r="DH6" s="64"/>
       <c r="DI6" s="6"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,246 +2626,246 @@
       <c r="DH7" s="1"/>
       <c r="DI7" s="1"/>
     </row>
-    <row r="8" spans="1:113" s="61" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:113" s="57" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="60"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BG8" s="60"/>
-      <c r="BH8" s="60"/>
-      <c r="BI8" s="60"/>
-      <c r="BJ8" s="60"/>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="60"/>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="60"/>
-      <c r="BP8" s="60"/>
-      <c r="BQ8" s="60"/>
-      <c r="BR8" s="60"/>
-      <c r="BS8" s="60"/>
-      <c r="BT8" s="60"/>
-      <c r="BU8" s="60"/>
-      <c r="BV8" s="60"/>
-      <c r="BW8" s="60"/>
-      <c r="BX8" s="60"/>
-      <c r="BY8" s="60"/>
-      <c r="BZ8" s="60"/>
-      <c r="CA8" s="60"/>
-      <c r="CB8" s="60"/>
-      <c r="CC8" s="60"/>
-      <c r="CD8" s="60"/>
-      <c r="CE8" s="60"/>
-      <c r="CF8" s="60"/>
-      <c r="CG8" s="60"/>
-      <c r="CH8" s="60"/>
-      <c r="CI8" s="60"/>
-      <c r="CJ8" s="60"/>
-      <c r="CK8" s="60"/>
-      <c r="CL8" s="60"/>
-      <c r="CM8" s="60"/>
-      <c r="CN8" s="60"/>
-      <c r="CO8" s="60"/>
-      <c r="CP8" s="60"/>
-      <c r="CQ8" s="60"/>
-      <c r="CR8" s="60"/>
-      <c r="CS8" s="60"/>
-      <c r="CT8" s="60"/>
-      <c r="CU8" s="60"/>
-      <c r="CV8" s="60"/>
-      <c r="CW8" s="60"/>
-      <c r="CX8" s="60"/>
-      <c r="CY8" s="60"/>
-      <c r="CZ8" s="60"/>
-      <c r="DA8" s="60"/>
-      <c r="DB8" s="60"/>
-      <c r="DC8" s="60"/>
-      <c r="DD8" s="60"/>
-      <c r="DE8" s="60"/>
-      <c r="DF8" s="60"/>
-      <c r="DG8" s="60"/>
-      <c r="DH8" s="60"/>
-      <c r="DI8" s="60"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
+      <c r="BP8" s="56"/>
+      <c r="BQ8" s="56"/>
+      <c r="BR8" s="56"/>
+      <c r="BS8" s="56"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="56"/>
+      <c r="BV8" s="56"/>
+      <c r="BW8" s="56"/>
+      <c r="BX8" s="56"/>
+      <c r="BY8" s="56"/>
+      <c r="BZ8" s="56"/>
+      <c r="CA8" s="56"/>
+      <c r="CB8" s="56"/>
+      <c r="CC8" s="56"/>
+      <c r="CD8" s="56"/>
+      <c r="CE8" s="56"/>
+      <c r="CF8" s="56"/>
+      <c r="CG8" s="56"/>
+      <c r="CH8" s="56"/>
+      <c r="CI8" s="56"/>
+      <c r="CJ8" s="56"/>
+      <c r="CK8" s="56"/>
+      <c r="CL8" s="56"/>
+      <c r="CM8" s="56"/>
+      <c r="CN8" s="56"/>
+      <c r="CO8" s="56"/>
+      <c r="CP8" s="56"/>
+      <c r="CQ8" s="56"/>
+      <c r="CR8" s="56"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="56"/>
+      <c r="CU8" s="56"/>
+      <c r="CV8" s="56"/>
+      <c r="CW8" s="56"/>
+      <c r="CX8" s="56"/>
+      <c r="CY8" s="56"/>
+      <c r="CZ8" s="56"/>
+      <c r="DA8" s="56"/>
+      <c r="DB8" s="56"/>
+      <c r="DC8" s="56"/>
+      <c r="DD8" s="56"/>
+      <c r="DE8" s="56"/>
+      <c r="DF8" s="56"/>
+      <c r="DG8" s="56"/>
+      <c r="DH8" s="56"/>
+      <c r="DI8" s="56"/>
     </row>
-    <row r="9" spans="1:113" s="61" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:113" s="57" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="60"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="60"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="60"/>
-      <c r="BI9" s="60"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="60"/>
-      <c r="BL9" s="60"/>
-      <c r="BM9" s="60"/>
-      <c r="BN9" s="60"/>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="60"/>
-      <c r="BQ9" s="60"/>
-      <c r="BR9" s="60"/>
-      <c r="BS9" s="60"/>
-      <c r="BT9" s="60"/>
-      <c r="BU9" s="60"/>
-      <c r="BV9" s="60"/>
-      <c r="BW9" s="60"/>
-      <c r="BX9" s="60"/>
-      <c r="BY9" s="60"/>
-      <c r="BZ9" s="60"/>
-      <c r="CA9" s="60"/>
-      <c r="CB9" s="60"/>
-      <c r="CC9" s="60"/>
-      <c r="CD9" s="60"/>
-      <c r="CE9" s="60"/>
-      <c r="CF9" s="60"/>
-      <c r="CG9" s="60"/>
-      <c r="CH9" s="60"/>
-      <c r="CI9" s="60"/>
-      <c r="CJ9" s="60"/>
-      <c r="CK9" s="60"/>
-      <c r="CL9" s="60"/>
-      <c r="CM9" s="60"/>
-      <c r="CN9" s="60"/>
-      <c r="CO9" s="60"/>
-      <c r="CP9" s="60"/>
-      <c r="CQ9" s="60"/>
-      <c r="CR9" s="60"/>
-      <c r="CS9" s="60"/>
-      <c r="CT9" s="60"/>
-      <c r="CU9" s="60"/>
-      <c r="CV9" s="60"/>
-      <c r="CW9" s="60"/>
-      <c r="CX9" s="60"/>
-      <c r="CY9" s="60"/>
-      <c r="CZ9" s="60"/>
-      <c r="DA9" s="60"/>
-      <c r="DB9" s="60"/>
-      <c r="DC9" s="60"/>
-      <c r="DD9" s="60"/>
-      <c r="DE9" s="60"/>
-      <c r="DF9" s="60"/>
-      <c r="DG9" s="60"/>
-      <c r="DH9" s="60"/>
-      <c r="DI9" s="60"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
+      <c r="AZ9" s="56"/>
+      <c r="BA9" s="56"/>
+      <c r="BB9" s="56"/>
+      <c r="BC9" s="56"/>
+      <c r="BD9" s="56"/>
+      <c r="BE9" s="56"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="56"/>
+      <c r="BI9" s="56"/>
+      <c r="BJ9" s="56"/>
+      <c r="BK9" s="56"/>
+      <c r="BL9" s="56"/>
+      <c r="BM9" s="56"/>
+      <c r="BN9" s="56"/>
+      <c r="BO9" s="56"/>
+      <c r="BP9" s="56"/>
+      <c r="BQ9" s="56"/>
+      <c r="BR9" s="56"/>
+      <c r="BS9" s="56"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="56"/>
+      <c r="BV9" s="56"/>
+      <c r="BW9" s="56"/>
+      <c r="BX9" s="56"/>
+      <c r="BY9" s="56"/>
+      <c r="BZ9" s="56"/>
+      <c r="CA9" s="56"/>
+      <c r="CB9" s="56"/>
+      <c r="CC9" s="56"/>
+      <c r="CD9" s="56"/>
+      <c r="CE9" s="56"/>
+      <c r="CF9" s="56"/>
+      <c r="CG9" s="56"/>
+      <c r="CH9" s="56"/>
+      <c r="CI9" s="56"/>
+      <c r="CJ9" s="56"/>
+      <c r="CK9" s="56"/>
+      <c r="CL9" s="56"/>
+      <c r="CM9" s="56"/>
+      <c r="CN9" s="56"/>
+      <c r="CO9" s="56"/>
+      <c r="CP9" s="56"/>
+      <c r="CQ9" s="56"/>
+      <c r="CR9" s="56"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="56"/>
+      <c r="CU9" s="56"/>
+      <c r="CV9" s="56"/>
+      <c r="CW9" s="56"/>
+      <c r="CX9" s="56"/>
+      <c r="CY9" s="56"/>
+      <c r="CZ9" s="56"/>
+      <c r="DA9" s="56"/>
+      <c r="DB9" s="56"/>
+      <c r="DC9" s="56"/>
+      <c r="DD9" s="56"/>
+      <c r="DE9" s="56"/>
+      <c r="DF9" s="56"/>
+      <c r="DG9" s="56"/>
+      <c r="DH9" s="56"/>
+      <c r="DI9" s="56"/>
     </row>
-    <row r="10" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="56"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
@@ -2954,12 +2977,12 @@
       <c r="DH10" s="23"/>
       <c r="DI10" s="23"/>
     </row>
-    <row r="11" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
@@ -3073,7 +3096,7 @@
     </row>
     <row r="12" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -3188,12 +3211,12 @@
       <c r="DH12" s="23"/>
       <c r="DI12" s="23"/>
     </row>
-    <row r="13" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
+    <row r="13" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
@@ -3428,7 +3451,7 @@
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -3660,126 +3683,126 @@
       <c r="DH16" s="21"/>
       <c r="DI16" s="21"/>
     </row>
-    <row r="17" spans="1:113" s="48" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="55"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="55"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="55"/>
-      <c r="BC17" s="55"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="55"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="55"/>
-      <c r="BI17" s="55"/>
-      <c r="BJ17" s="55"/>
-      <c r="BK17" s="55"/>
-      <c r="BL17" s="55"/>
-      <c r="BM17" s="55"/>
-      <c r="BN17" s="55"/>
-      <c r="BO17" s="55"/>
-      <c r="BP17" s="55"/>
-      <c r="BQ17" s="55"/>
-      <c r="BR17" s="55"/>
-      <c r="BS17" s="55"/>
-      <c r="BT17" s="55"/>
-      <c r="BU17" s="55"/>
-      <c r="BV17" s="55"/>
-      <c r="BW17" s="55"/>
-      <c r="BX17" s="55"/>
-      <c r="BY17" s="55"/>
-      <c r="BZ17" s="55"/>
-      <c r="CA17" s="55"/>
-      <c r="CB17" s="55"/>
-      <c r="CC17" s="55"/>
-      <c r="CD17" s="55"/>
-      <c r="CE17" s="55"/>
-      <c r="CF17" s="55"/>
-      <c r="CG17" s="55"/>
-      <c r="CH17" s="55"/>
-      <c r="CI17" s="55"/>
-      <c r="CJ17" s="55"/>
-      <c r="CK17" s="55"/>
-      <c r="CL17" s="55"/>
-      <c r="CM17" s="55"/>
-      <c r="CN17" s="55"/>
-      <c r="CO17" s="55"/>
-      <c r="CP17" s="55"/>
-      <c r="CQ17" s="55"/>
-      <c r="CR17" s="55"/>
-      <c r="CS17" s="55"/>
-      <c r="CT17" s="55"/>
-      <c r="CU17" s="55"/>
-      <c r="CV17" s="55"/>
-      <c r="CW17" s="55"/>
-      <c r="CX17" s="55"/>
-      <c r="CY17" s="55"/>
-      <c r="CZ17" s="55"/>
-      <c r="DA17" s="55"/>
-      <c r="DB17" s="55"/>
-      <c r="DC17" s="55"/>
-      <c r="DD17" s="55"/>
-      <c r="DE17" s="55"/>
-      <c r="DF17" s="55"/>
-      <c r="DG17" s="55"/>
-      <c r="DH17" s="55"/>
-      <c r="DI17" s="55"/>
+    <row r="17" spans="1:113" s="44" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
+      <c r="BP17" s="51"/>
+      <c r="BQ17" s="51"/>
+      <c r="BR17" s="51"/>
+      <c r="BS17" s="51"/>
+      <c r="BT17" s="51"/>
+      <c r="BU17" s="51"/>
+      <c r="BV17" s="51"/>
+      <c r="BW17" s="51"/>
+      <c r="BX17" s="51"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
+      <c r="CE17" s="51"/>
+      <c r="CF17" s="51"/>
+      <c r="CG17" s="51"/>
+      <c r="CH17" s="51"/>
+      <c r="CI17" s="51"/>
+      <c r="CJ17" s="51"/>
+      <c r="CK17" s="51"/>
+      <c r="CL17" s="51"/>
+      <c r="CM17" s="51"/>
+      <c r="CN17" s="51"/>
+      <c r="CO17" s="51"/>
+      <c r="CP17" s="51"/>
+      <c r="CQ17" s="51"/>
+      <c r="CR17" s="51"/>
+      <c r="CS17" s="51"/>
+      <c r="CT17" s="51"/>
+      <c r="CU17" s="51"/>
+      <c r="CV17" s="51"/>
+      <c r="CW17" s="51"/>
+      <c r="CX17" s="51"/>
+      <c r="CY17" s="51"/>
+      <c r="CZ17" s="51"/>
+      <c r="DA17" s="51"/>
+      <c r="DB17" s="51"/>
+      <c r="DC17" s="51"/>
+      <c r="DD17" s="51"/>
+      <c r="DE17" s="51"/>
+      <c r="DF17" s="51"/>
+      <c r="DG17" s="51"/>
+      <c r="DH17" s="51"/>
+      <c r="DI17" s="51"/>
     </row>
     <row r="18" spans="1:113" s="19" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="37" t="s">
@@ -3896,12 +3919,12 @@
       <c r="DH18" s="21"/>
       <c r="DI18" s="21"/>
     </row>
-    <row r="19" spans="1:113" s="52" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51" t="s">
+    <row r="19" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="27"/>
@@ -4015,12 +4038,12 @@
       <c r="DH19" s="27"/>
       <c r="DI19" s="27"/>
     </row>
-    <row r="20" spans="1:113" s="52" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51" t="s">
+    <row r="20" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="27"/>
@@ -4134,12 +4157,12 @@
       <c r="DH20" s="27"/>
       <c r="DI20" s="27"/>
     </row>
-    <row r="21" spans="1:113" s="52" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51" t="s">
+    <row r="21" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="27"/>
@@ -4254,253 +4277,247 @@
       <c r="DI21" s="27"/>
     </row>
     <row r="22" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="63"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="63"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="63"/>
-      <c r="AH22" s="63"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="63"/>
-      <c r="AK22" s="63"/>
-      <c r="AL22" s="63"/>
-      <c r="AM22" s="63"/>
-      <c r="AN22" s="63"/>
-      <c r="AO22" s="63"/>
-      <c r="AP22" s="63"/>
-      <c r="AQ22" s="63"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="63"/>
-      <c r="AU22" s="63"/>
-      <c r="AV22" s="63"/>
-      <c r="AW22" s="63"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="63"/>
-      <c r="BC22" s="63"/>
-      <c r="BD22" s="63"/>
-      <c r="BE22" s="63"/>
-      <c r="BF22" s="63"/>
-      <c r="BG22" s="63"/>
-      <c r="BH22" s="63"/>
-      <c r="BI22" s="63"/>
-      <c r="BJ22" s="63"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="63"/>
-      <c r="BO22" s="63"/>
-      <c r="BP22" s="63"/>
-      <c r="BQ22" s="63"/>
-      <c r="BR22" s="63"/>
-      <c r="BS22" s="63"/>
-      <c r="BT22" s="63"/>
-      <c r="BU22" s="63"/>
-      <c r="BV22" s="63"/>
-      <c r="BW22" s="63"/>
-      <c r="BX22" s="63"/>
-      <c r="BY22" s="63"/>
-      <c r="BZ22" s="63"/>
-      <c r="CA22" s="63"/>
-      <c r="CB22" s="63"/>
-      <c r="CC22" s="63"/>
-      <c r="CD22" s="63"/>
-      <c r="CE22" s="63"/>
-      <c r="CF22" s="63"/>
-      <c r="CG22" s="63"/>
-      <c r="CH22" s="63"/>
-      <c r="CI22" s="63"/>
-      <c r="CJ22" s="63"/>
-      <c r="CK22" s="63"/>
-      <c r="CL22" s="63"/>
-      <c r="CM22" s="63"/>
-      <c r="CN22" s="63"/>
-      <c r="CO22" s="63"/>
-      <c r="CP22" s="63"/>
-      <c r="CQ22" s="63"/>
-      <c r="CR22" s="63"/>
-      <c r="CS22" s="63"/>
-      <c r="CT22" s="63"/>
-      <c r="CU22" s="63"/>
-      <c r="CV22" s="63"/>
-      <c r="CW22" s="63"/>
-      <c r="CX22" s="63"/>
-      <c r="CY22" s="63"/>
-      <c r="CZ22" s="63"/>
-      <c r="DA22" s="63"/>
-      <c r="DB22" s="63"/>
-      <c r="DC22" s="63"/>
-      <c r="DD22" s="63"/>
-      <c r="DE22" s="63"/>
-      <c r="DF22" s="63"/>
-      <c r="DG22" s="63"/>
-      <c r="DH22" s="63"/>
-      <c r="DI22" s="63"/>
+      <c r="A22" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="59"/>
+      <c r="AZ22" s="59"/>
+      <c r="BA22" s="59"/>
+      <c r="BB22" s="59"/>
+      <c r="BC22" s="59"/>
+      <c r="BD22" s="59"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="59"/>
+      <c r="BH22" s="59"/>
+      <c r="BI22" s="59"/>
+      <c r="BJ22" s="59"/>
+      <c r="BK22" s="59"/>
+      <c r="BL22" s="59"/>
+      <c r="BM22" s="59"/>
+      <c r="BN22" s="59"/>
+      <c r="BO22" s="59"/>
+      <c r="BP22" s="59"/>
+      <c r="BQ22" s="59"/>
+      <c r="BR22" s="59"/>
+      <c r="BS22" s="59"/>
+      <c r="BT22" s="59"/>
+      <c r="BU22" s="59"/>
+      <c r="BV22" s="59"/>
+      <c r="BW22" s="59"/>
+      <c r="BX22" s="59"/>
+      <c r="BY22" s="59"/>
+      <c r="BZ22" s="59"/>
+      <c r="CA22" s="59"/>
+      <c r="CB22" s="59"/>
+      <c r="CC22" s="59"/>
+      <c r="CD22" s="59"/>
+      <c r="CE22" s="59"/>
+      <c r="CF22" s="59"/>
+      <c r="CG22" s="59"/>
+      <c r="CH22" s="59"/>
+      <c r="CI22" s="59"/>
+      <c r="CJ22" s="59"/>
+      <c r="CK22" s="59"/>
+      <c r="CL22" s="59"/>
+      <c r="CM22" s="59"/>
+      <c r="CN22" s="59"/>
+      <c r="CO22" s="59"/>
+      <c r="CP22" s="59"/>
+      <c r="CQ22" s="59"/>
+      <c r="CR22" s="59"/>
+      <c r="CS22" s="59"/>
+      <c r="CT22" s="59"/>
+      <c r="CU22" s="59"/>
+      <c r="CV22" s="59"/>
+      <c r="CW22" s="59"/>
+      <c r="CX22" s="59"/>
+      <c r="CY22" s="59"/>
+      <c r="CZ22" s="59"/>
+      <c r="DA22" s="59"/>
+      <c r="DB22" s="59"/>
+      <c r="DC22" s="59"/>
+      <c r="DD22" s="59"/>
+      <c r="DE22" s="59"/>
+      <c r="DF22" s="59"/>
+      <c r="DG22" s="59"/>
+      <c r="DH22" s="59"/>
+      <c r="DI22" s="59"/>
     </row>
     <row r="23" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="39" t="s">
+      <c r="A23" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="63"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="63"/>
-      <c r="AH23" s="63"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="63"/>
-      <c r="AK23" s="63"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="63"/>
-      <c r="AO23" s="63"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="63"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="63"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="63"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="63"/>
-      <c r="BB23" s="63"/>
-      <c r="BC23" s="63"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="63"/>
-      <c r="BJ23" s="63"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="63"/>
-      <c r="BO23" s="63"/>
-      <c r="BP23" s="63"/>
-      <c r="BQ23" s="63"/>
-      <c r="BR23" s="63"/>
-      <c r="BS23" s="63"/>
-      <c r="BT23" s="63"/>
-      <c r="BU23" s="63"/>
-      <c r="BV23" s="63"/>
-      <c r="BW23" s="63"/>
-      <c r="BX23" s="63"/>
-      <c r="BY23" s="63"/>
-      <c r="BZ23" s="63"/>
-      <c r="CA23" s="63"/>
-      <c r="CB23" s="63"/>
-      <c r="CC23" s="63"/>
-      <c r="CD23" s="63"/>
-      <c r="CE23" s="63"/>
-      <c r="CF23" s="63"/>
-      <c r="CG23" s="63"/>
-      <c r="CH23" s="63"/>
-      <c r="CI23" s="63"/>
-      <c r="CJ23" s="63"/>
-      <c r="CK23" s="63"/>
-      <c r="CL23" s="63"/>
-      <c r="CM23" s="63"/>
-      <c r="CN23" s="63"/>
-      <c r="CO23" s="63"/>
-      <c r="CP23" s="63"/>
-      <c r="CQ23" s="63"/>
-      <c r="CR23" s="63"/>
-      <c r="CS23" s="63"/>
-      <c r="CT23" s="63"/>
-      <c r="CU23" s="63"/>
-      <c r="CV23" s="63"/>
-      <c r="CW23" s="63"/>
-      <c r="CX23" s="63"/>
-      <c r="CY23" s="63"/>
-      <c r="CZ23" s="63"/>
-      <c r="DA23" s="63"/>
-      <c r="DB23" s="63"/>
-      <c r="DC23" s="63"/>
-      <c r="DD23" s="63"/>
-      <c r="DE23" s="63"/>
-      <c r="DF23" s="63"/>
-      <c r="DG23" s="63"/>
-      <c r="DH23" s="63"/>
-      <c r="DI23" s="63"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="59"/>
+      <c r="AT23" s="59"/>
+      <c r="AU23" s="59"/>
+      <c r="AV23" s="59"/>
+      <c r="AW23" s="59"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="59"/>
+      <c r="AZ23" s="59"/>
+      <c r="BA23" s="59"/>
+      <c r="BB23" s="59"/>
+      <c r="BC23" s="59"/>
+      <c r="BD23" s="59"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="59"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="59"/>
+      <c r="BJ23" s="59"/>
+      <c r="BK23" s="59"/>
+      <c r="BL23" s="59"/>
+      <c r="BM23" s="59"/>
+      <c r="BN23" s="59"/>
+      <c r="BO23" s="59"/>
+      <c r="BP23" s="59"/>
+      <c r="BQ23" s="59"/>
+      <c r="BR23" s="59"/>
+      <c r="BS23" s="59"/>
+      <c r="BT23" s="59"/>
+      <c r="BU23" s="59"/>
+      <c r="BV23" s="59"/>
+      <c r="BW23" s="59"/>
+      <c r="BX23" s="59"/>
+      <c r="BY23" s="59"/>
+      <c r="BZ23" s="59"/>
+      <c r="CA23" s="59"/>
+      <c r="CB23" s="59"/>
+      <c r="CC23" s="59"/>
+      <c r="CD23" s="59"/>
+      <c r="CE23" s="59"/>
+      <c r="CF23" s="59"/>
+      <c r="CG23" s="59"/>
+      <c r="CH23" s="59"/>
+      <c r="CI23" s="59"/>
+      <c r="CJ23" s="59"/>
+      <c r="CK23" s="59"/>
+      <c r="CL23" s="59"/>
+      <c r="CM23" s="59"/>
+      <c r="CN23" s="59"/>
+      <c r="CO23" s="59"/>
+      <c r="CP23" s="59"/>
+      <c r="CQ23" s="59"/>
+      <c r="CR23" s="59"/>
+      <c r="CS23" s="59"/>
+      <c r="CT23" s="59"/>
+      <c r="CU23" s="59"/>
+      <c r="CV23" s="59"/>
+      <c r="CW23" s="59"/>
+      <c r="CX23" s="59"/>
+      <c r="CY23" s="59"/>
+      <c r="CZ23" s="59"/>
+      <c r="DA23" s="59"/>
+      <c r="DB23" s="59"/>
+      <c r="DC23" s="59"/>
+      <c r="DD23" s="59"/>
+      <c r="DE23" s="59"/>
+      <c r="DF23" s="59"/>
+      <c r="DG23" s="59"/>
+      <c r="DH23" s="59"/>
+      <c r="DI23" s="59"/>
     </row>
     <row r="24" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>12</v>
-      </c>
+      <c r="A24" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -4613,15 +4630,13 @@
       <c r="DI24" s="28"/>
     </row>
     <row r="25" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>12</v>
-      </c>
+      <c r="A25" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="63"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -4733,12 +4748,12 @@
       <c r="DH25" s="28"/>
       <c r="DI25" s="28"/>
     </row>
-    <row r="26" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+    <row r="26" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -4850,12 +4865,12 @@
       <c r="DH26" s="26"/>
       <c r="DI26" s="26"/>
     </row>
-    <row r="27" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+    <row r="27" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -4967,12 +4982,12 @@
       <c r="DH27" s="26"/>
       <c r="DI27" s="26"/>
     </row>
-    <row r="28" spans="1:113" s="48" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="56"/>
+    <row r="28" spans="1:113" s="44" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -5084,12 +5099,12 @@
       <c r="DH28" s="22"/>
       <c r="DI28" s="22"/>
     </row>
-    <row r="29" spans="1:113" s="48" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
+    <row r="29" spans="1:113" s="44" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -5203,11 +5218,11 @@
     </row>
     <row r="30" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -5322,7 +5337,7 @@
     </row>
     <row r="31" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
@@ -5439,7 +5454,7 @@
     </row>
     <row r="32" spans="1:113" s="19" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="34"/>
       <c r="C32" s="35"/>
@@ -5555,11 +5570,11 @@
       <c r="DI32" s="29"/>
     </row>
     <row r="33" spans="1:113" s="19" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
@@ -5672,9 +5687,9 @@
       <c r="DI33" s="29"/>
     </row>
     <row r="34" spans="1:113" s="19" customFormat="1" ht="5.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
@@ -5787,11 +5802,11 @@
       <c r="DI34" s="31"/>
     </row>
     <row r="35" spans="1:113" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="44"/>
+      <c r="A35" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
@@ -5904,11 +5919,11 @@
       <c r="DI35" s="32"/>
     </row>
     <row r="36" spans="1:113" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="44"/>
+      <c r="A36" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="32" t="str">
         <f>IF(ISBLANK(D35),"",IF((D35&lt;D17),(D35/(3600*D16)),((D35-D17)/D18+D17/D16)/3600))</f>
         <v/>
@@ -6352,7 +6367,7 @@
     </row>
     <row r="37" spans="1:113" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6420,7 +6435,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M38" s="12">
         <f>(SUM(D36:M36)+12*(SUM(D37:M37)))/24</f>
@@ -6439,15 +6454,15 @@
     </row>
     <row r="39" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B39" s="15"/>
-      <c r="C39" s="62">
+      <c r="C39" s="58">
         <f>COUNTA(D9:DI9)</f>
         <v>0</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -6499,15 +6514,15 @@
     </row>
     <row r="40" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="62">
+      <c r="C40" s="58">
         <f>(SUMIF(D36:O36,"&gt;0")+9*C39)/24</f>
         <v>0</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -6584,1224 +6599,1318 @@
     </row>
     <row r="42" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64" t="str">
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82" t="str">
         <f>IF(ISBLANK(D42),"",D42)</f>
         <v/>
       </c>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="64"/>
-      <c r="T42" s="64"/>
-      <c r="U42" s="64"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
-      <c r="X42" s="64" t="str">
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82" t="str">
         <f t="shared" ref="X42" si="33">IF(ISBLANK(N42),"",N42)</f>
         <v/>
       </c>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="64"/>
-      <c r="AA42" s="64"/>
-      <c r="AB42" s="64"/>
-      <c r="AC42" s="64"/>
-      <c r="AD42" s="64"/>
-      <c r="AE42" s="64"/>
-      <c r="AF42" s="64"/>
-      <c r="AG42" s="64"/>
-      <c r="AH42" s="64" t="str">
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="82"/>
+      <c r="AD42" s="82"/>
+      <c r="AE42" s="82"/>
+      <c r="AF42" s="82"/>
+      <c r="AG42" s="82"/>
+      <c r="AH42" s="82" t="str">
         <f t="shared" ref="AH42" si="34">IF(ISBLANK(X42),"",X42)</f>
         <v/>
       </c>
-      <c r="AI42" s="64"/>
-      <c r="AJ42" s="64"/>
-      <c r="AK42" s="64"/>
-      <c r="AL42" s="64"/>
-      <c r="AM42" s="64"/>
-      <c r="AN42" s="64"/>
-      <c r="AO42" s="64"/>
-      <c r="AP42" s="64"/>
-      <c r="AQ42" s="64"/>
-      <c r="AR42" s="64" t="str">
+      <c r="AI42" s="82"/>
+      <c r="AJ42" s="82"/>
+      <c r="AK42" s="82"/>
+      <c r="AL42" s="82"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="82"/>
+      <c r="AO42" s="82"/>
+      <c r="AP42" s="82"/>
+      <c r="AQ42" s="82"/>
+      <c r="AR42" s="82" t="str">
         <f t="shared" ref="AR42" si="35">IF(ISBLANK(AH42),"",AH42)</f>
         <v/>
       </c>
-      <c r="AS42" s="64"/>
-      <c r="AT42" s="64"/>
-      <c r="AU42" s="64"/>
-      <c r="AV42" s="64"/>
-      <c r="AW42" s="64"/>
-      <c r="AX42" s="64"/>
-      <c r="AY42" s="64"/>
-      <c r="AZ42" s="64"/>
-      <c r="BA42" s="64"/>
-      <c r="BB42" s="64" t="str">
+      <c r="AS42" s="82"/>
+      <c r="AT42" s="82"/>
+      <c r="AU42" s="82"/>
+      <c r="AV42" s="82"/>
+      <c r="AW42" s="82"/>
+      <c r="AX42" s="82"/>
+      <c r="AY42" s="82"/>
+      <c r="AZ42" s="82"/>
+      <c r="BA42" s="82"/>
+      <c r="BB42" s="82" t="str">
         <f t="shared" ref="BB42" si="36">IF(ISBLANK(AR42),"",AR42)</f>
         <v/>
       </c>
-      <c r="BC42" s="64"/>
-      <c r="BD42" s="64"/>
-      <c r="BE42" s="64"/>
-      <c r="BF42" s="64"/>
-      <c r="BG42" s="64"/>
-      <c r="BH42" s="64"/>
-      <c r="BI42" s="64"/>
-      <c r="BJ42" s="64"/>
-      <c r="BK42" s="64"/>
-      <c r="BL42" s="64" t="str">
+      <c r="BC42" s="82"/>
+      <c r="BD42" s="82"/>
+      <c r="BE42" s="82"/>
+      <c r="BF42" s="82"/>
+      <c r="BG42" s="82"/>
+      <c r="BH42" s="82"/>
+      <c r="BI42" s="82"/>
+      <c r="BJ42" s="82"/>
+      <c r="BK42" s="82"/>
+      <c r="BL42" s="82" t="str">
         <f t="shared" ref="BL42" si="37">IF(ISBLANK(BB42),"",BB42)</f>
         <v/>
       </c>
-      <c r="BM42" s="64"/>
-      <c r="BN42" s="64"/>
-      <c r="BO42" s="64"/>
-      <c r="BP42" s="64"/>
-      <c r="BQ42" s="64"/>
-      <c r="BR42" s="64"/>
-      <c r="BS42" s="64"/>
-      <c r="BT42" s="64"/>
-      <c r="BU42" s="64"/>
-      <c r="BV42" s="64" t="str">
+      <c r="BM42" s="82"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="82"/>
+      <c r="BP42" s="82"/>
+      <c r="BQ42" s="82"/>
+      <c r="BR42" s="82"/>
+      <c r="BS42" s="82"/>
+      <c r="BT42" s="82"/>
+      <c r="BU42" s="82"/>
+      <c r="BV42" s="82" t="str">
         <f t="shared" ref="BV42" si="38">IF(ISBLANK(BL42),"",BL42)</f>
         <v/>
       </c>
-      <c r="BW42" s="64"/>
-      <c r="BX42" s="64"/>
-      <c r="BY42" s="64"/>
-      <c r="BZ42" s="64"/>
-      <c r="CA42" s="64"/>
-      <c r="CB42" s="64"/>
-      <c r="CC42" s="64"/>
-      <c r="CD42" s="64"/>
-      <c r="CE42" s="64"/>
-      <c r="CF42" s="64" t="str">
+      <c r="BW42" s="82"/>
+      <c r="BX42" s="82"/>
+      <c r="BY42" s="82"/>
+      <c r="BZ42" s="82"/>
+      <c r="CA42" s="82"/>
+      <c r="CB42" s="82"/>
+      <c r="CC42" s="82"/>
+      <c r="CD42" s="82"/>
+      <c r="CE42" s="82"/>
+      <c r="CF42" s="82" t="str">
         <f t="shared" ref="CF42" si="39">IF(ISBLANK(BV42),"",BV42)</f>
         <v/>
       </c>
-      <c r="CG42" s="64"/>
-      <c r="CH42" s="64"/>
-      <c r="CI42" s="64"/>
-      <c r="CJ42" s="64"/>
-      <c r="CK42" s="64"/>
-      <c r="CL42" s="64"/>
-      <c r="CM42" s="64"/>
-      <c r="CN42" s="64"/>
-      <c r="CO42" s="64"/>
-      <c r="CP42" s="64" t="str">
+      <c r="CG42" s="82"/>
+      <c r="CH42" s="82"/>
+      <c r="CI42" s="82"/>
+      <c r="CJ42" s="82"/>
+      <c r="CK42" s="82"/>
+      <c r="CL42" s="82"/>
+      <c r="CM42" s="82"/>
+      <c r="CN42" s="82"/>
+      <c r="CO42" s="82"/>
+      <c r="CP42" s="82" t="str">
         <f t="shared" ref="CP42" si="40">IF(ISBLANK(CF42),"",CF42)</f>
         <v/>
       </c>
-      <c r="CQ42" s="64"/>
-      <c r="CR42" s="64"/>
-      <c r="CS42" s="64"/>
-      <c r="CT42" s="64"/>
-      <c r="CU42" s="64"/>
-      <c r="CV42" s="64"/>
-      <c r="CW42" s="64"/>
-      <c r="CX42" s="64"/>
-      <c r="CY42" s="64"/>
-      <c r="CZ42" s="64" t="str">
+      <c r="CQ42" s="82"/>
+      <c r="CR42" s="82"/>
+      <c r="CS42" s="82"/>
+      <c r="CT42" s="82"/>
+      <c r="CU42" s="82"/>
+      <c r="CV42" s="82"/>
+      <c r="CW42" s="82"/>
+      <c r="CX42" s="82"/>
+      <c r="CY42" s="82"/>
+      <c r="CZ42" s="82" t="str">
         <f>IF(ISBLANK(CP42),"",CP42)</f>
         <v/>
       </c>
-      <c r="DA42" s="64"/>
-      <c r="DB42" s="64"/>
-      <c r="DC42" s="64"/>
-      <c r="DD42" s="64"/>
-      <c r="DE42" s="64"/>
-      <c r="DF42" s="64"/>
-      <c r="DG42" s="64"/>
-      <c r="DH42" s="64"/>
-      <c r="DI42" s="64"/>
+      <c r="DA42" s="82"/>
+      <c r="DB42" s="82"/>
+      <c r="DC42" s="82"/>
+      <c r="DD42" s="82"/>
+      <c r="DE42" s="82"/>
+      <c r="DF42" s="82"/>
+      <c r="DG42" s="82"/>
+      <c r="DH42" s="82"/>
+      <c r="DI42" s="82"/>
     </row>
     <row r="43" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="64"/>
-      <c r="W43" s="64"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="64"/>
-      <c r="AA43" s="64"/>
-      <c r="AB43" s="64"/>
-      <c r="AC43" s="64"/>
-      <c r="AD43" s="64"/>
-      <c r="AE43" s="64"/>
-      <c r="AF43" s="64"/>
-      <c r="AG43" s="64"/>
-      <c r="AH43" s="64"/>
-      <c r="AI43" s="64"/>
-      <c r="AJ43" s="64"/>
-      <c r="AK43" s="64"/>
-      <c r="AL43" s="64"/>
-      <c r="AM43" s="64"/>
-      <c r="AN43" s="64"/>
-      <c r="AO43" s="64"/>
-      <c r="AP43" s="64"/>
-      <c r="AQ43" s="64"/>
-      <c r="AR43" s="64"/>
-      <c r="AS43" s="64"/>
-      <c r="AT43" s="64"/>
-      <c r="AU43" s="64"/>
-      <c r="AV43" s="64"/>
-      <c r="AW43" s="64"/>
-      <c r="AX43" s="64"/>
-      <c r="AY43" s="64"/>
-      <c r="AZ43" s="64"/>
-      <c r="BA43" s="64"/>
-      <c r="BB43" s="64"/>
-      <c r="BC43" s="64"/>
-      <c r="BD43" s="64"/>
-      <c r="BE43" s="64"/>
-      <c r="BF43" s="64"/>
-      <c r="BG43" s="64"/>
-      <c r="BH43" s="64"/>
-      <c r="BI43" s="64"/>
-      <c r="BJ43" s="64"/>
-      <c r="BK43" s="64"/>
-      <c r="BL43" s="64"/>
-      <c r="BM43" s="64"/>
-      <c r="BN43" s="64"/>
-      <c r="BO43" s="64"/>
-      <c r="BP43" s="64"/>
-      <c r="BQ43" s="64"/>
-      <c r="BR43" s="64"/>
-      <c r="BS43" s="64"/>
-      <c r="BT43" s="64"/>
-      <c r="BU43" s="64"/>
-      <c r="BV43" s="64"/>
-      <c r="BW43" s="64"/>
-      <c r="BX43" s="64"/>
-      <c r="BY43" s="64"/>
-      <c r="BZ43" s="64"/>
-      <c r="CA43" s="64"/>
-      <c r="CB43" s="64"/>
-      <c r="CC43" s="64"/>
-      <c r="CD43" s="64"/>
-      <c r="CE43" s="64"/>
-      <c r="CF43" s="64"/>
-      <c r="CG43" s="64"/>
-      <c r="CH43" s="64"/>
-      <c r="CI43" s="64"/>
-      <c r="CJ43" s="64"/>
-      <c r="CK43" s="64"/>
-      <c r="CL43" s="64"/>
-      <c r="CM43" s="64"/>
-      <c r="CN43" s="64"/>
-      <c r="CO43" s="64"/>
-      <c r="CP43" s="64"/>
-      <c r="CQ43" s="64"/>
-      <c r="CR43" s="64"/>
-      <c r="CS43" s="64"/>
-      <c r="CT43" s="64"/>
-      <c r="CU43" s="64"/>
-      <c r="CV43" s="64"/>
-      <c r="CW43" s="64"/>
-      <c r="CX43" s="64"/>
-      <c r="CY43" s="64"/>
-      <c r="CZ43" s="64"/>
-      <c r="DA43" s="64"/>
-      <c r="DB43" s="64"/>
-      <c r="DC43" s="64"/>
-      <c r="DD43" s="64"/>
-      <c r="DE43" s="64"/>
-      <c r="DF43" s="64"/>
-      <c r="DG43" s="64"/>
-      <c r="DH43" s="64"/>
-      <c r="DI43" s="64"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
+      <c r="AD43" s="82"/>
+      <c r="AE43" s="82"/>
+      <c r="AF43" s="82"/>
+      <c r="AG43" s="82"/>
+      <c r="AH43" s="82"/>
+      <c r="AI43" s="82"/>
+      <c r="AJ43" s="82"/>
+      <c r="AK43" s="82"/>
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="82"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="82"/>
+      <c r="AP43" s="82"/>
+      <c r="AQ43" s="82"/>
+      <c r="AR43" s="82"/>
+      <c r="AS43" s="82"/>
+      <c r="AT43" s="82"/>
+      <c r="AU43" s="82"/>
+      <c r="AV43" s="82"/>
+      <c r="AW43" s="82"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="82"/>
+      <c r="AZ43" s="82"/>
+      <c r="BA43" s="82"/>
+      <c r="BB43" s="82"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="82"/>
+      <c r="BH43" s="82"/>
+      <c r="BI43" s="82"/>
+      <c r="BJ43" s="82"/>
+      <c r="BK43" s="82"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
+      <c r="BP43" s="82"/>
+      <c r="BQ43" s="82"/>
+      <c r="BR43" s="82"/>
+      <c r="BS43" s="82"/>
+      <c r="BT43" s="82"/>
+      <c r="BU43" s="82"/>
+      <c r="BV43" s="82"/>
+      <c r="BW43" s="82"/>
+      <c r="BX43" s="82"/>
+      <c r="BY43" s="82"/>
+      <c r="BZ43" s="82"/>
+      <c r="CA43" s="82"/>
+      <c r="CB43" s="82"/>
+      <c r="CC43" s="82"/>
+      <c r="CD43" s="82"/>
+      <c r="CE43" s="82"/>
+      <c r="CF43" s="82"/>
+      <c r="CG43" s="82"/>
+      <c r="CH43" s="82"/>
+      <c r="CI43" s="82"/>
+      <c r="CJ43" s="82"/>
+      <c r="CK43" s="82"/>
+      <c r="CL43" s="82"/>
+      <c r="CM43" s="82"/>
+      <c r="CN43" s="82"/>
+      <c r="CO43" s="82"/>
+      <c r="CP43" s="82"/>
+      <c r="CQ43" s="82"/>
+      <c r="CR43" s="82"/>
+      <c r="CS43" s="82"/>
+      <c r="CT43" s="82"/>
+      <c r="CU43" s="82"/>
+      <c r="CV43" s="82"/>
+      <c r="CW43" s="82"/>
+      <c r="CX43" s="82"/>
+      <c r="CY43" s="82"/>
+      <c r="CZ43" s="82"/>
+      <c r="DA43" s="82"/>
+      <c r="DB43" s="82"/>
+      <c r="DC43" s="82"/>
+      <c r="DD43" s="82"/>
+      <c r="DE43" s="82"/>
+      <c r="DF43" s="82"/>
+      <c r="DG43" s="82"/>
+      <c r="DH43" s="82"/>
+      <c r="DI43" s="82"/>
     </row>
     <row r="44" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="64"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="64"/>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="64"/>
-      <c r="AK44" s="64"/>
-      <c r="AL44" s="64"/>
-      <c r="AM44" s="64"/>
-      <c r="AN44" s="64"/>
-      <c r="AO44" s="64"/>
-      <c r="AP44" s="64"/>
-      <c r="AQ44" s="64"/>
-      <c r="AR44" s="64"/>
-      <c r="AS44" s="64"/>
-      <c r="AT44" s="64"/>
-      <c r="AU44" s="64"/>
-      <c r="AV44" s="64"/>
-      <c r="AW44" s="64"/>
-      <c r="AX44" s="64"/>
-      <c r="AY44" s="64"/>
-      <c r="AZ44" s="64"/>
-      <c r="BA44" s="64"/>
-      <c r="BB44" s="64"/>
-      <c r="BC44" s="64"/>
-      <c r="BD44" s="64"/>
-      <c r="BE44" s="64"/>
-      <c r="BF44" s="64"/>
-      <c r="BG44" s="64"/>
-      <c r="BH44" s="64"/>
-      <c r="BI44" s="64"/>
-      <c r="BJ44" s="64"/>
-      <c r="BK44" s="64"/>
-      <c r="BL44" s="64"/>
-      <c r="BM44" s="64"/>
-      <c r="BN44" s="64"/>
-      <c r="BO44" s="64"/>
-      <c r="BP44" s="64"/>
-      <c r="BQ44" s="64"/>
-      <c r="BR44" s="64"/>
-      <c r="BS44" s="64"/>
-      <c r="BT44" s="64"/>
-      <c r="BU44" s="64"/>
-      <c r="BV44" s="64"/>
-      <c r="BW44" s="64"/>
-      <c r="BX44" s="64"/>
-      <c r="BY44" s="64"/>
-      <c r="BZ44" s="64"/>
-      <c r="CA44" s="64"/>
-      <c r="CB44" s="64"/>
-      <c r="CC44" s="64"/>
-      <c r="CD44" s="64"/>
-      <c r="CE44" s="64"/>
-      <c r="CF44" s="64"/>
-      <c r="CG44" s="64"/>
-      <c r="CH44" s="64"/>
-      <c r="CI44" s="64"/>
-      <c r="CJ44" s="64"/>
-      <c r="CK44" s="64"/>
-      <c r="CL44" s="64"/>
-      <c r="CM44" s="64"/>
-      <c r="CN44" s="64"/>
-      <c r="CO44" s="64"/>
-      <c r="CP44" s="64"/>
-      <c r="CQ44" s="64"/>
-      <c r="CR44" s="64"/>
-      <c r="CS44" s="64"/>
-      <c r="CT44" s="64"/>
-      <c r="CU44" s="64"/>
-      <c r="CV44" s="64"/>
-      <c r="CW44" s="64"/>
-      <c r="CX44" s="64"/>
-      <c r="CY44" s="64"/>
-      <c r="CZ44" s="64"/>
-      <c r="DA44" s="64"/>
-      <c r="DB44" s="64"/>
-      <c r="DC44" s="64"/>
-      <c r="DD44" s="64"/>
-      <c r="DE44" s="64"/>
-      <c r="DF44" s="64"/>
-      <c r="DG44" s="64"/>
-      <c r="DH44" s="64"/>
-      <c r="DI44" s="64"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="82"/>
+      <c r="AD44" s="82"/>
+      <c r="AE44" s="82"/>
+      <c r="AF44" s="82"/>
+      <c r="AG44" s="82"/>
+      <c r="AH44" s="82"/>
+      <c r="AI44" s="82"/>
+      <c r="AJ44" s="82"/>
+      <c r="AK44" s="82"/>
+      <c r="AL44" s="82"/>
+      <c r="AM44" s="82"/>
+      <c r="AN44" s="82"/>
+      <c r="AO44" s="82"/>
+      <c r="AP44" s="82"/>
+      <c r="AQ44" s="82"/>
+      <c r="AR44" s="82"/>
+      <c r="AS44" s="82"/>
+      <c r="AT44" s="82"/>
+      <c r="AU44" s="82"/>
+      <c r="AV44" s="82"/>
+      <c r="AW44" s="82"/>
+      <c r="AX44" s="82"/>
+      <c r="AY44" s="82"/>
+      <c r="AZ44" s="82"/>
+      <c r="BA44" s="82"/>
+      <c r="BB44" s="82"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="82"/>
+      <c r="BH44" s="82"/>
+      <c r="BI44" s="82"/>
+      <c r="BJ44" s="82"/>
+      <c r="BK44" s="82"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
+      <c r="BP44" s="82"/>
+      <c r="BQ44" s="82"/>
+      <c r="BR44" s="82"/>
+      <c r="BS44" s="82"/>
+      <c r="BT44" s="82"/>
+      <c r="BU44" s="82"/>
+      <c r="BV44" s="82"/>
+      <c r="BW44" s="82"/>
+      <c r="BX44" s="82"/>
+      <c r="BY44" s="82"/>
+      <c r="BZ44" s="82"/>
+      <c r="CA44" s="82"/>
+      <c r="CB44" s="82"/>
+      <c r="CC44" s="82"/>
+      <c r="CD44" s="82"/>
+      <c r="CE44" s="82"/>
+      <c r="CF44" s="82"/>
+      <c r="CG44" s="82"/>
+      <c r="CH44" s="82"/>
+      <c r="CI44" s="82"/>
+      <c r="CJ44" s="82"/>
+      <c r="CK44" s="82"/>
+      <c r="CL44" s="82"/>
+      <c r="CM44" s="82"/>
+      <c r="CN44" s="82"/>
+      <c r="CO44" s="82"/>
+      <c r="CP44" s="82"/>
+      <c r="CQ44" s="82"/>
+      <c r="CR44" s="82"/>
+      <c r="CS44" s="82"/>
+      <c r="CT44" s="82"/>
+      <c r="CU44" s="82"/>
+      <c r="CV44" s="82"/>
+      <c r="CW44" s="82"/>
+      <c r="CX44" s="82"/>
+      <c r="CY44" s="82"/>
+      <c r="CZ44" s="82"/>
+      <c r="DA44" s="82"/>
+      <c r="DB44" s="82"/>
+      <c r="DC44" s="82"/>
+      <c r="DD44" s="82"/>
+      <c r="DE44" s="82"/>
+      <c r="DF44" s="82"/>
+      <c r="DG44" s="82"/>
+      <c r="DH44" s="82"/>
+      <c r="DI44" s="82"/>
     </row>
     <row r="45" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="64"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="64"/>
-      <c r="T45" s="64"/>
-      <c r="U45" s="64"/>
-      <c r="V45" s="64"/>
-      <c r="W45" s="64"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="64"/>
-      <c r="AA45" s="64"/>
-      <c r="AB45" s="64"/>
-      <c r="AC45" s="64"/>
-      <c r="AD45" s="64"/>
-      <c r="AE45" s="64"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
-      <c r="AH45" s="64"/>
-      <c r="AI45" s="64"/>
-      <c r="AJ45" s="64"/>
-      <c r="AK45" s="64"/>
-      <c r="AL45" s="64"/>
-      <c r="AM45" s="64"/>
-      <c r="AN45" s="64"/>
-      <c r="AO45" s="64"/>
-      <c r="AP45" s="64"/>
-      <c r="AQ45" s="64"/>
-      <c r="AR45" s="64"/>
-      <c r="AS45" s="64"/>
-      <c r="AT45" s="64"/>
-      <c r="AU45" s="64"/>
-      <c r="AV45" s="64"/>
-      <c r="AW45" s="64"/>
-      <c r="AX45" s="64"/>
-      <c r="AY45" s="64"/>
-      <c r="AZ45" s="64"/>
-      <c r="BA45" s="64"/>
-      <c r="BB45" s="64"/>
-      <c r="BC45" s="64"/>
-      <c r="BD45" s="64"/>
-      <c r="BE45" s="64"/>
-      <c r="BF45" s="64"/>
-      <c r="BG45" s="64"/>
-      <c r="BH45" s="64"/>
-      <c r="BI45" s="64"/>
-      <c r="BJ45" s="64"/>
-      <c r="BK45" s="64"/>
-      <c r="BL45" s="64"/>
-      <c r="BM45" s="64"/>
-      <c r="BN45" s="64"/>
-      <c r="BO45" s="64"/>
-      <c r="BP45" s="64"/>
-      <c r="BQ45" s="64"/>
-      <c r="BR45" s="64"/>
-      <c r="BS45" s="64"/>
-      <c r="BT45" s="64"/>
-      <c r="BU45" s="64"/>
-      <c r="BV45" s="64"/>
-      <c r="BW45" s="64"/>
-      <c r="BX45" s="64"/>
-      <c r="BY45" s="64"/>
-      <c r="BZ45" s="64"/>
-      <c r="CA45" s="64"/>
-      <c r="CB45" s="64"/>
-      <c r="CC45" s="64"/>
-      <c r="CD45" s="64"/>
-      <c r="CE45" s="64"/>
-      <c r="CF45" s="64"/>
-      <c r="CG45" s="64"/>
-      <c r="CH45" s="64"/>
-      <c r="CI45" s="64"/>
-      <c r="CJ45" s="64"/>
-      <c r="CK45" s="64"/>
-      <c r="CL45" s="64"/>
-      <c r="CM45" s="64"/>
-      <c r="CN45" s="64"/>
-      <c r="CO45" s="64"/>
-      <c r="CP45" s="64"/>
-      <c r="CQ45" s="64"/>
-      <c r="CR45" s="64"/>
-      <c r="CS45" s="64"/>
-      <c r="CT45" s="64"/>
-      <c r="CU45" s="64"/>
-      <c r="CV45" s="64"/>
-      <c r="CW45" s="64"/>
-      <c r="CX45" s="64"/>
-      <c r="CY45" s="64"/>
-      <c r="CZ45" s="64"/>
-      <c r="DA45" s="64"/>
-      <c r="DB45" s="64"/>
-      <c r="DC45" s="64"/>
-      <c r="DD45" s="64"/>
-      <c r="DE45" s="64"/>
-      <c r="DF45" s="64"/>
-      <c r="DG45" s="64"/>
-      <c r="DH45" s="64"/>
-      <c r="DI45" s="64"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="82"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="82"/>
+      <c r="AI45" s="82"/>
+      <c r="AJ45" s="82"/>
+      <c r="AK45" s="82"/>
+      <c r="AL45" s="82"/>
+      <c r="AM45" s="82"/>
+      <c r="AN45" s="82"/>
+      <c r="AO45" s="82"/>
+      <c r="AP45" s="82"/>
+      <c r="AQ45" s="82"/>
+      <c r="AR45" s="82"/>
+      <c r="AS45" s="82"/>
+      <c r="AT45" s="82"/>
+      <c r="AU45" s="82"/>
+      <c r="AV45" s="82"/>
+      <c r="AW45" s="82"/>
+      <c r="AX45" s="82"/>
+      <c r="AY45" s="82"/>
+      <c r="AZ45" s="82"/>
+      <c r="BA45" s="82"/>
+      <c r="BB45" s="82"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="82"/>
+      <c r="BH45" s="82"/>
+      <c r="BI45" s="82"/>
+      <c r="BJ45" s="82"/>
+      <c r="BK45" s="82"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
+      <c r="BP45" s="82"/>
+      <c r="BQ45" s="82"/>
+      <c r="BR45" s="82"/>
+      <c r="BS45" s="82"/>
+      <c r="BT45" s="82"/>
+      <c r="BU45" s="82"/>
+      <c r="BV45" s="82"/>
+      <c r="BW45" s="82"/>
+      <c r="BX45" s="82"/>
+      <c r="BY45" s="82"/>
+      <c r="BZ45" s="82"/>
+      <c r="CA45" s="82"/>
+      <c r="CB45" s="82"/>
+      <c r="CC45" s="82"/>
+      <c r="CD45" s="82"/>
+      <c r="CE45" s="82"/>
+      <c r="CF45" s="82"/>
+      <c r="CG45" s="82"/>
+      <c r="CH45" s="82"/>
+      <c r="CI45" s="82"/>
+      <c r="CJ45" s="82"/>
+      <c r="CK45" s="82"/>
+      <c r="CL45" s="82"/>
+      <c r="CM45" s="82"/>
+      <c r="CN45" s="82"/>
+      <c r="CO45" s="82"/>
+      <c r="CP45" s="82"/>
+      <c r="CQ45" s="82"/>
+      <c r="CR45" s="82"/>
+      <c r="CS45" s="82"/>
+      <c r="CT45" s="82"/>
+      <c r="CU45" s="82"/>
+      <c r="CV45" s="82"/>
+      <c r="CW45" s="82"/>
+      <c r="CX45" s="82"/>
+      <c r="CY45" s="82"/>
+      <c r="CZ45" s="82"/>
+      <c r="DA45" s="82"/>
+      <c r="DB45" s="82"/>
+      <c r="DC45" s="82"/>
+      <c r="DD45" s="82"/>
+      <c r="DE45" s="82"/>
+      <c r="DF45" s="82"/>
+      <c r="DG45" s="82"/>
+      <c r="DH45" s="82"/>
+      <c r="DI45" s="82"/>
     </row>
     <row r="46" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
-      <c r="M46" s="64"/>
-      <c r="N46" s="64"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="64"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="64"/>
-      <c r="V46" s="64"/>
-      <c r="W46" s="64"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="64"/>
-      <c r="AA46" s="64"/>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="64"/>
-      <c r="AD46" s="64"/>
-      <c r="AE46" s="64"/>
-      <c r="AF46" s="64"/>
-      <c r="AG46" s="64"/>
-      <c r="AH46" s="64"/>
-      <c r="AI46" s="64"/>
-      <c r="AJ46" s="64"/>
-      <c r="AK46" s="64"/>
-      <c r="AL46" s="64"/>
-      <c r="AM46" s="64"/>
-      <c r="AN46" s="64"/>
-      <c r="AO46" s="64"/>
-      <c r="AP46" s="64"/>
-      <c r="AQ46" s="64"/>
-      <c r="AR46" s="64"/>
-      <c r="AS46" s="64"/>
-      <c r="AT46" s="64"/>
-      <c r="AU46" s="64"/>
-      <c r="AV46" s="64"/>
-      <c r="AW46" s="64"/>
-      <c r="AX46" s="64"/>
-      <c r="AY46" s="64"/>
-      <c r="AZ46" s="64"/>
-      <c r="BA46" s="64"/>
-      <c r="BB46" s="64"/>
-      <c r="BC46" s="64"/>
-      <c r="BD46" s="64"/>
-      <c r="BE46" s="64"/>
-      <c r="BF46" s="64"/>
-      <c r="BG46" s="64"/>
-      <c r="BH46" s="64"/>
-      <c r="BI46" s="64"/>
-      <c r="BJ46" s="64"/>
-      <c r="BK46" s="64"/>
-      <c r="BL46" s="64"/>
-      <c r="BM46" s="64"/>
-      <c r="BN46" s="64"/>
-      <c r="BO46" s="64"/>
-      <c r="BP46" s="64"/>
-      <c r="BQ46" s="64"/>
-      <c r="BR46" s="64"/>
-      <c r="BS46" s="64"/>
-      <c r="BT46" s="64"/>
-      <c r="BU46" s="64"/>
-      <c r="BV46" s="64"/>
-      <c r="BW46" s="64"/>
-      <c r="BX46" s="64"/>
-      <c r="BY46" s="64"/>
-      <c r="BZ46" s="64"/>
-      <c r="CA46" s="64"/>
-      <c r="CB46" s="64"/>
-      <c r="CC46" s="64"/>
-      <c r="CD46" s="64"/>
-      <c r="CE46" s="64"/>
-      <c r="CF46" s="64"/>
-      <c r="CG46" s="64"/>
-      <c r="CH46" s="64"/>
-      <c r="CI46" s="64"/>
-      <c r="CJ46" s="64"/>
-      <c r="CK46" s="64"/>
-      <c r="CL46" s="64"/>
-      <c r="CM46" s="64"/>
-      <c r="CN46" s="64"/>
-      <c r="CO46" s="64"/>
-      <c r="CP46" s="64"/>
-      <c r="CQ46" s="64"/>
-      <c r="CR46" s="64"/>
-      <c r="CS46" s="64"/>
-      <c r="CT46" s="64"/>
-      <c r="CU46" s="64"/>
-      <c r="CV46" s="64"/>
-      <c r="CW46" s="64"/>
-      <c r="CX46" s="64"/>
-      <c r="CY46" s="64"/>
-      <c r="CZ46" s="64"/>
-      <c r="DA46" s="64"/>
-      <c r="DB46" s="64"/>
-      <c r="DC46" s="64"/>
-      <c r="DD46" s="64"/>
-      <c r="DE46" s="64"/>
-      <c r="DF46" s="64"/>
-      <c r="DG46" s="64"/>
-      <c r="DH46" s="64"/>
-      <c r="DI46" s="64"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="82"/>
+      <c r="AF46" s="82"/>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="82"/>
+      <c r="AI46" s="82"/>
+      <c r="AJ46" s="82"/>
+      <c r="AK46" s="82"/>
+      <c r="AL46" s="82"/>
+      <c r="AM46" s="82"/>
+      <c r="AN46" s="82"/>
+      <c r="AO46" s="82"/>
+      <c r="AP46" s="82"/>
+      <c r="AQ46" s="82"/>
+      <c r="AR46" s="82"/>
+      <c r="AS46" s="82"/>
+      <c r="AT46" s="82"/>
+      <c r="AU46" s="82"/>
+      <c r="AV46" s="82"/>
+      <c r="AW46" s="82"/>
+      <c r="AX46" s="82"/>
+      <c r="AY46" s="82"/>
+      <c r="AZ46" s="82"/>
+      <c r="BA46" s="82"/>
+      <c r="BB46" s="82"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="82"/>
+      <c r="BH46" s="82"/>
+      <c r="BI46" s="82"/>
+      <c r="BJ46" s="82"/>
+      <c r="BK46" s="82"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
+      <c r="BP46" s="82"/>
+      <c r="BQ46" s="82"/>
+      <c r="BR46" s="82"/>
+      <c r="BS46" s="82"/>
+      <c r="BT46" s="82"/>
+      <c r="BU46" s="82"/>
+      <c r="BV46" s="82"/>
+      <c r="BW46" s="82"/>
+      <c r="BX46" s="82"/>
+      <c r="BY46" s="82"/>
+      <c r="BZ46" s="82"/>
+      <c r="CA46" s="82"/>
+      <c r="CB46" s="82"/>
+      <c r="CC46" s="82"/>
+      <c r="CD46" s="82"/>
+      <c r="CE46" s="82"/>
+      <c r="CF46" s="82"/>
+      <c r="CG46" s="82"/>
+      <c r="CH46" s="82"/>
+      <c r="CI46" s="82"/>
+      <c r="CJ46" s="82"/>
+      <c r="CK46" s="82"/>
+      <c r="CL46" s="82"/>
+      <c r="CM46" s="82"/>
+      <c r="CN46" s="82"/>
+      <c r="CO46" s="82"/>
+      <c r="CP46" s="82"/>
+      <c r="CQ46" s="82"/>
+      <c r="CR46" s="82"/>
+      <c r="CS46" s="82"/>
+      <c r="CT46" s="82"/>
+      <c r="CU46" s="82"/>
+      <c r="CV46" s="82"/>
+      <c r="CW46" s="82"/>
+      <c r="CX46" s="82"/>
+      <c r="CY46" s="82"/>
+      <c r="CZ46" s="82"/>
+      <c r="DA46" s="82"/>
+      <c r="DB46" s="82"/>
+      <c r="DC46" s="82"/>
+      <c r="DD46" s="82"/>
+      <c r="DE46" s="82"/>
+      <c r="DF46" s="82"/>
+      <c r="DG46" s="82"/>
+      <c r="DH46" s="82"/>
+      <c r="DI46" s="82"/>
     </row>
     <row r="47" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
-      <c r="M47" s="64"/>
-      <c r="N47" s="64" t="str">
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82" t="str">
         <f>IF(ISBLANK(D47),"",D47)</f>
         <v/>
       </c>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="64"/>
-      <c r="T47" s="64"/>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64"/>
-      <c r="W47" s="64"/>
-      <c r="X47" s="64" t="str">
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82" t="str">
         <f t="shared" ref="X47" si="41">IF(ISBLANK(N47),"",N47)</f>
         <v/>
       </c>
-      <c r="Y47" s="64"/>
-      <c r="Z47" s="64"/>
-      <c r="AA47" s="64"/>
-      <c r="AB47" s="64"/>
-      <c r="AC47" s="64"/>
-      <c r="AD47" s="64"/>
-      <c r="AE47" s="64"/>
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="64"/>
-      <c r="AH47" s="64" t="str">
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="82" t="str">
         <f t="shared" ref="AH47" si="42">IF(ISBLANK(X47),"",X47)</f>
         <v/>
       </c>
-      <c r="AI47" s="64"/>
-      <c r="AJ47" s="64"/>
-      <c r="AK47" s="64"/>
-      <c r="AL47" s="64"/>
-      <c r="AM47" s="64"/>
-      <c r="AN47" s="64"/>
-      <c r="AO47" s="64"/>
-      <c r="AP47" s="64"/>
-      <c r="AQ47" s="64"/>
-      <c r="AR47" s="64" t="str">
+      <c r="AI47" s="82"/>
+      <c r="AJ47" s="82"/>
+      <c r="AK47" s="82"/>
+      <c r="AL47" s="82"/>
+      <c r="AM47" s="82"/>
+      <c r="AN47" s="82"/>
+      <c r="AO47" s="82"/>
+      <c r="AP47" s="82"/>
+      <c r="AQ47" s="82"/>
+      <c r="AR47" s="82" t="str">
         <f t="shared" ref="AR47" si="43">IF(ISBLANK(AH47),"",AH47)</f>
         <v/>
       </c>
-      <c r="AS47" s="64"/>
-      <c r="AT47" s="64"/>
-      <c r="AU47" s="64"/>
-      <c r="AV47" s="64"/>
-      <c r="AW47" s="64"/>
-      <c r="AX47" s="64"/>
-      <c r="AY47" s="64"/>
-      <c r="AZ47" s="64"/>
-      <c r="BA47" s="64"/>
-      <c r="BB47" s="64" t="str">
+      <c r="AS47" s="82"/>
+      <c r="AT47" s="82"/>
+      <c r="AU47" s="82"/>
+      <c r="AV47" s="82"/>
+      <c r="AW47" s="82"/>
+      <c r="AX47" s="82"/>
+      <c r="AY47" s="82"/>
+      <c r="AZ47" s="82"/>
+      <c r="BA47" s="82"/>
+      <c r="BB47" s="82" t="str">
         <f t="shared" ref="BB47" si="44">IF(ISBLANK(AR47),"",AR47)</f>
         <v/>
       </c>
-      <c r="BC47" s="64"/>
-      <c r="BD47" s="64"/>
-      <c r="BE47" s="64"/>
-      <c r="BF47" s="64"/>
-      <c r="BG47" s="64"/>
-      <c r="BH47" s="64"/>
-      <c r="BI47" s="64"/>
-      <c r="BJ47" s="64"/>
-      <c r="BK47" s="64"/>
-      <c r="BL47" s="64" t="str">
+      <c r="BC47" s="82"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="82"/>
+      <c r="BH47" s="82"/>
+      <c r="BI47" s="82"/>
+      <c r="BJ47" s="82"/>
+      <c r="BK47" s="82"/>
+      <c r="BL47" s="82" t="str">
         <f t="shared" ref="BL47" si="45">IF(ISBLANK(BB47),"",BB47)</f>
         <v/>
       </c>
-      <c r="BM47" s="64"/>
-      <c r="BN47" s="64"/>
-      <c r="BO47" s="64"/>
-      <c r="BP47" s="64"/>
-      <c r="BQ47" s="64"/>
-      <c r="BR47" s="64"/>
-      <c r="BS47" s="64"/>
-      <c r="BT47" s="64"/>
-      <c r="BU47" s="64"/>
-      <c r="BV47" s="64" t="str">
+      <c r="BM47" s="82"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="82"/>
+      <c r="BP47" s="82"/>
+      <c r="BQ47" s="82"/>
+      <c r="BR47" s="82"/>
+      <c r="BS47" s="82"/>
+      <c r="BT47" s="82"/>
+      <c r="BU47" s="82"/>
+      <c r="BV47" s="82" t="str">
         <f t="shared" ref="BV47" si="46">IF(ISBLANK(BL47),"",BL47)</f>
         <v/>
       </c>
-      <c r="BW47" s="64"/>
-      <c r="BX47" s="64"/>
-      <c r="BY47" s="64"/>
-      <c r="BZ47" s="64"/>
-      <c r="CA47" s="64"/>
-      <c r="CB47" s="64"/>
-      <c r="CC47" s="64"/>
-      <c r="CD47" s="64"/>
-      <c r="CE47" s="64"/>
-      <c r="CF47" s="64" t="str">
+      <c r="BW47" s="82"/>
+      <c r="BX47" s="82"/>
+      <c r="BY47" s="82"/>
+      <c r="BZ47" s="82"/>
+      <c r="CA47" s="82"/>
+      <c r="CB47" s="82"/>
+      <c r="CC47" s="82"/>
+      <c r="CD47" s="82"/>
+      <c r="CE47" s="82"/>
+      <c r="CF47" s="82" t="str">
         <f t="shared" ref="CF47" si="47">IF(ISBLANK(BV47),"",BV47)</f>
         <v/>
       </c>
-      <c r="CG47" s="64"/>
-      <c r="CH47" s="64"/>
-      <c r="CI47" s="64"/>
-      <c r="CJ47" s="64"/>
-      <c r="CK47" s="64"/>
-      <c r="CL47" s="64"/>
-      <c r="CM47" s="64"/>
-      <c r="CN47" s="64"/>
-      <c r="CO47" s="64"/>
-      <c r="CP47" s="64" t="str">
+      <c r="CG47" s="82"/>
+      <c r="CH47" s="82"/>
+      <c r="CI47" s="82"/>
+      <c r="CJ47" s="82"/>
+      <c r="CK47" s="82"/>
+      <c r="CL47" s="82"/>
+      <c r="CM47" s="82"/>
+      <c r="CN47" s="82"/>
+      <c r="CO47" s="82"/>
+      <c r="CP47" s="82" t="str">
         <f t="shared" ref="CP47" si="48">IF(ISBLANK(CF47),"",CF47)</f>
         <v/>
       </c>
-      <c r="CQ47" s="64"/>
-      <c r="CR47" s="64"/>
-      <c r="CS47" s="64"/>
-      <c r="CT47" s="64"/>
-      <c r="CU47" s="64"/>
-      <c r="CV47" s="64"/>
-      <c r="CW47" s="64"/>
-      <c r="CX47" s="64"/>
-      <c r="CY47" s="64"/>
-      <c r="CZ47" s="64" t="str">
+      <c r="CQ47" s="82"/>
+      <c r="CR47" s="82"/>
+      <c r="CS47" s="82"/>
+      <c r="CT47" s="82"/>
+      <c r="CU47" s="82"/>
+      <c r="CV47" s="82"/>
+      <c r="CW47" s="82"/>
+      <c r="CX47" s="82"/>
+      <c r="CY47" s="82"/>
+      <c r="CZ47" s="82" t="str">
         <f t="shared" ref="CZ47" si="49">IF(ISBLANK(CP47),"",CP47)</f>
         <v/>
       </c>
-      <c r="DA47" s="64"/>
-      <c r="DB47" s="64"/>
-      <c r="DC47" s="64"/>
-      <c r="DD47" s="64"/>
-      <c r="DE47" s="64"/>
-      <c r="DF47" s="64"/>
-      <c r="DG47" s="64"/>
-      <c r="DH47" s="64"/>
-      <c r="DI47" s="64"/>
+      <c r="DA47" s="82"/>
+      <c r="DB47" s="82"/>
+      <c r="DC47" s="82"/>
+      <c r="DD47" s="82"/>
+      <c r="DE47" s="82"/>
+      <c r="DF47" s="82"/>
+      <c r="DG47" s="82"/>
+      <c r="DH47" s="82"/>
+      <c r="DI47" s="82"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="64"/>
-      <c r="M48" s="64"/>
-      <c r="N48" s="64"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="64"/>
-      <c r="T48" s="64"/>
-      <c r="U48" s="64"/>
-      <c r="V48" s="64"/>
-      <c r="W48" s="64"/>
-      <c r="X48" s="64"/>
-      <c r="Y48" s="64"/>
-      <c r="Z48" s="64"/>
-      <c r="AA48" s="64"/>
-      <c r="AB48" s="64"/>
-      <c r="AC48" s="64"/>
-      <c r="AD48" s="64"/>
-      <c r="AE48" s="64"/>
-      <c r="AF48" s="64"/>
-      <c r="AG48" s="64"/>
-      <c r="AH48" s="64"/>
-      <c r="AI48" s="64"/>
-      <c r="AJ48" s="64"/>
-      <c r="AK48" s="64"/>
-      <c r="AL48" s="64"/>
-      <c r="AM48" s="64"/>
-      <c r="AN48" s="64"/>
-      <c r="AO48" s="64"/>
-      <c r="AP48" s="64"/>
-      <c r="AQ48" s="64"/>
-      <c r="AR48" s="64"/>
-      <c r="AS48" s="64"/>
-      <c r="AT48" s="64"/>
-      <c r="AU48" s="64"/>
-      <c r="AV48" s="64"/>
-      <c r="AW48" s="64"/>
-      <c r="AX48" s="64"/>
-      <c r="AY48" s="64"/>
-      <c r="AZ48" s="64"/>
-      <c r="BA48" s="64"/>
-      <c r="BB48" s="64"/>
-      <c r="BC48" s="64"/>
-      <c r="BD48" s="64"/>
-      <c r="BE48" s="64"/>
-      <c r="BF48" s="64"/>
-      <c r="BG48" s="64"/>
-      <c r="BH48" s="64"/>
-      <c r="BI48" s="64"/>
-      <c r="BJ48" s="64"/>
-      <c r="BK48" s="64"/>
-      <c r="BL48" s="64"/>
-      <c r="BM48" s="64"/>
-      <c r="BN48" s="64"/>
-      <c r="BO48" s="64"/>
-      <c r="BP48" s="64"/>
-      <c r="BQ48" s="64"/>
-      <c r="BR48" s="64"/>
-      <c r="BS48" s="64"/>
-      <c r="BT48" s="64"/>
-      <c r="BU48" s="64"/>
-      <c r="BV48" s="64"/>
-      <c r="BW48" s="64"/>
-      <c r="BX48" s="64"/>
-      <c r="BY48" s="64"/>
-      <c r="BZ48" s="64"/>
-      <c r="CA48" s="64"/>
-      <c r="CB48" s="64"/>
-      <c r="CC48" s="64"/>
-      <c r="CD48" s="64"/>
-      <c r="CE48" s="64"/>
-      <c r="CF48" s="64"/>
-      <c r="CG48" s="64"/>
-      <c r="CH48" s="64"/>
-      <c r="CI48" s="64"/>
-      <c r="CJ48" s="64"/>
-      <c r="CK48" s="64"/>
-      <c r="CL48" s="64"/>
-      <c r="CM48" s="64"/>
-      <c r="CN48" s="64"/>
-      <c r="CO48" s="64"/>
-      <c r="CP48" s="64"/>
-      <c r="CQ48" s="64"/>
-      <c r="CR48" s="64"/>
-      <c r="CS48" s="64"/>
-      <c r="CT48" s="64"/>
-      <c r="CU48" s="64"/>
-      <c r="CV48" s="64"/>
-      <c r="CW48" s="64"/>
-      <c r="CX48" s="64"/>
-      <c r="CY48" s="64"/>
-      <c r="CZ48" s="64"/>
-      <c r="DA48" s="64"/>
-      <c r="DB48" s="64"/>
-      <c r="DC48" s="64"/>
-      <c r="DD48" s="64"/>
-      <c r="DE48" s="64"/>
-      <c r="DF48" s="64"/>
-      <c r="DG48" s="64"/>
-      <c r="DH48" s="64"/>
-      <c r="DI48" s="64"/>
+      <c r="D48" s="82"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="82"/>
+      <c r="S48" s="82"/>
+      <c r="T48" s="82"/>
+      <c r="U48" s="82"/>
+      <c r="V48" s="82"/>
+      <c r="W48" s="82"/>
+      <c r="X48" s="82"/>
+      <c r="Y48" s="82"/>
+      <c r="Z48" s="82"/>
+      <c r="AA48" s="82"/>
+      <c r="AB48" s="82"/>
+      <c r="AC48" s="82"/>
+      <c r="AD48" s="82"/>
+      <c r="AE48" s="82"/>
+      <c r="AF48" s="82"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="82"/>
+      <c r="AI48" s="82"/>
+      <c r="AJ48" s="82"/>
+      <c r="AK48" s="82"/>
+      <c r="AL48" s="82"/>
+      <c r="AM48" s="82"/>
+      <c r="AN48" s="82"/>
+      <c r="AO48" s="82"/>
+      <c r="AP48" s="82"/>
+      <c r="AQ48" s="82"/>
+      <c r="AR48" s="82"/>
+      <c r="AS48" s="82"/>
+      <c r="AT48" s="82"/>
+      <c r="AU48" s="82"/>
+      <c r="AV48" s="82"/>
+      <c r="AW48" s="82"/>
+      <c r="AX48" s="82"/>
+      <c r="AY48" s="82"/>
+      <c r="AZ48" s="82"/>
+      <c r="BA48" s="82"/>
+      <c r="BB48" s="82"/>
+      <c r="BC48" s="82"/>
+      <c r="BD48" s="82"/>
+      <c r="BE48" s="82"/>
+      <c r="BF48" s="82"/>
+      <c r="BG48" s="82"/>
+      <c r="BH48" s="82"/>
+      <c r="BI48" s="82"/>
+      <c r="BJ48" s="82"/>
+      <c r="BK48" s="82"/>
+      <c r="BL48" s="82"/>
+      <c r="BM48" s="82"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="82"/>
+      <c r="BP48" s="82"/>
+      <c r="BQ48" s="82"/>
+      <c r="BR48" s="82"/>
+      <c r="BS48" s="82"/>
+      <c r="BT48" s="82"/>
+      <c r="BU48" s="82"/>
+      <c r="BV48" s="82"/>
+      <c r="BW48" s="82"/>
+      <c r="BX48" s="82"/>
+      <c r="BY48" s="82"/>
+      <c r="BZ48" s="82"/>
+      <c r="CA48" s="82"/>
+      <c r="CB48" s="82"/>
+      <c r="CC48" s="82"/>
+      <c r="CD48" s="82"/>
+      <c r="CE48" s="82"/>
+      <c r="CF48" s="82"/>
+      <c r="CG48" s="82"/>
+      <c r="CH48" s="82"/>
+      <c r="CI48" s="82"/>
+      <c r="CJ48" s="82"/>
+      <c r="CK48" s="82"/>
+      <c r="CL48" s="82"/>
+      <c r="CM48" s="82"/>
+      <c r="CN48" s="82"/>
+      <c r="CO48" s="82"/>
+      <c r="CP48" s="82"/>
+      <c r="CQ48" s="82"/>
+      <c r="CR48" s="82"/>
+      <c r="CS48" s="82"/>
+      <c r="CT48" s="82"/>
+      <c r="CU48" s="82"/>
+      <c r="CV48" s="82"/>
+      <c r="CW48" s="82"/>
+      <c r="CX48" s="82"/>
+      <c r="CY48" s="82"/>
+      <c r="CZ48" s="82"/>
+      <c r="DA48" s="82"/>
+      <c r="DB48" s="82"/>
+      <c r="DC48" s="82"/>
+      <c r="DD48" s="82"/>
+      <c r="DE48" s="82"/>
+      <c r="DF48" s="82"/>
+      <c r="DG48" s="82"/>
+      <c r="DH48" s="82"/>
+      <c r="DI48" s="82"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="64"/>
-      <c r="AF49" s="64"/>
-      <c r="AG49" s="64"/>
-      <c r="AH49" s="64"/>
-      <c r="AI49" s="64"/>
-      <c r="AJ49" s="64"/>
-      <c r="AK49" s="64"/>
-      <c r="AL49" s="64"/>
-      <c r="AM49" s="64"/>
-      <c r="AN49" s="64"/>
-      <c r="AO49" s="64"/>
-      <c r="AP49" s="64"/>
-      <c r="AQ49" s="64"/>
-      <c r="AR49" s="64"/>
-      <c r="AS49" s="64"/>
-      <c r="AT49" s="64"/>
-      <c r="AU49" s="64"/>
-      <c r="AV49" s="64"/>
-      <c r="AW49" s="64"/>
-      <c r="AX49" s="64"/>
-      <c r="AY49" s="64"/>
-      <c r="AZ49" s="64"/>
-      <c r="BA49" s="64"/>
-      <c r="BB49" s="64"/>
-      <c r="BC49" s="64"/>
-      <c r="BD49" s="64"/>
-      <c r="BE49" s="64"/>
-      <c r="BF49" s="64"/>
-      <c r="BG49" s="64"/>
-      <c r="BH49" s="64"/>
-      <c r="BI49" s="64"/>
-      <c r="BJ49" s="64"/>
-      <c r="BK49" s="64"/>
-      <c r="BL49" s="64"/>
-      <c r="BM49" s="64"/>
-      <c r="BN49" s="64"/>
-      <c r="BO49" s="64"/>
-      <c r="BP49" s="64"/>
-      <c r="BQ49" s="64"/>
-      <c r="BR49" s="64"/>
-      <c r="BS49" s="64"/>
-      <c r="BT49" s="64"/>
-      <c r="BU49" s="64"/>
-      <c r="BV49" s="64"/>
-      <c r="BW49" s="64"/>
-      <c r="BX49" s="64"/>
-      <c r="BY49" s="64"/>
-      <c r="BZ49" s="64"/>
-      <c r="CA49" s="64"/>
-      <c r="CB49" s="64"/>
-      <c r="CC49" s="64"/>
-      <c r="CD49" s="64"/>
-      <c r="CE49" s="64"/>
-      <c r="CF49" s="64"/>
-      <c r="CG49" s="64"/>
-      <c r="CH49" s="64"/>
-      <c r="CI49" s="64"/>
-      <c r="CJ49" s="64"/>
-      <c r="CK49" s="64"/>
-      <c r="CL49" s="64"/>
-      <c r="CM49" s="64"/>
-      <c r="CN49" s="64"/>
-      <c r="CO49" s="64"/>
-      <c r="CP49" s="64"/>
-      <c r="CQ49" s="64"/>
-      <c r="CR49" s="64"/>
-      <c r="CS49" s="64"/>
-      <c r="CT49" s="64"/>
-      <c r="CU49" s="64"/>
-      <c r="CV49" s="64"/>
-      <c r="CW49" s="64"/>
-      <c r="CX49" s="64"/>
-      <c r="CY49" s="64"/>
-      <c r="CZ49" s="64"/>
-      <c r="DA49" s="64"/>
-      <c r="DB49" s="64"/>
-      <c r="DC49" s="64"/>
-      <c r="DD49" s="64"/>
-      <c r="DE49" s="64"/>
-      <c r="DF49" s="64"/>
-      <c r="DG49" s="64"/>
-      <c r="DH49" s="64"/>
-      <c r="DI49" s="64"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="82"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="82"/>
+      <c r="R49" s="82"/>
+      <c r="S49" s="82"/>
+      <c r="T49" s="82"/>
+      <c r="U49" s="82"/>
+      <c r="V49" s="82"/>
+      <c r="W49" s="82"/>
+      <c r="X49" s="82"/>
+      <c r="Y49" s="82"/>
+      <c r="Z49" s="82"/>
+      <c r="AA49" s="82"/>
+      <c r="AB49" s="82"/>
+      <c r="AC49" s="82"/>
+      <c r="AD49" s="82"/>
+      <c r="AE49" s="82"/>
+      <c r="AF49" s="82"/>
+      <c r="AG49" s="82"/>
+      <c r="AH49" s="82"/>
+      <c r="AI49" s="82"/>
+      <c r="AJ49" s="82"/>
+      <c r="AK49" s="82"/>
+      <c r="AL49" s="82"/>
+      <c r="AM49" s="82"/>
+      <c r="AN49" s="82"/>
+      <c r="AO49" s="82"/>
+      <c r="AP49" s="82"/>
+      <c r="AQ49" s="82"/>
+      <c r="AR49" s="82"/>
+      <c r="AS49" s="82"/>
+      <c r="AT49" s="82"/>
+      <c r="AU49" s="82"/>
+      <c r="AV49" s="82"/>
+      <c r="AW49" s="82"/>
+      <c r="AX49" s="82"/>
+      <c r="AY49" s="82"/>
+      <c r="AZ49" s="82"/>
+      <c r="BA49" s="82"/>
+      <c r="BB49" s="82"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="82"/>
+      <c r="BH49" s="82"/>
+      <c r="BI49" s="82"/>
+      <c r="BJ49" s="82"/>
+      <c r="BK49" s="82"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
+      <c r="BP49" s="82"/>
+      <c r="BQ49" s="82"/>
+      <c r="BR49" s="82"/>
+      <c r="BS49" s="82"/>
+      <c r="BT49" s="82"/>
+      <c r="BU49" s="82"/>
+      <c r="BV49" s="82"/>
+      <c r="BW49" s="82"/>
+      <c r="BX49" s="82"/>
+      <c r="BY49" s="82"/>
+      <c r="BZ49" s="82"/>
+      <c r="CA49" s="82"/>
+      <c r="CB49" s="82"/>
+      <c r="CC49" s="82"/>
+      <c r="CD49" s="82"/>
+      <c r="CE49" s="82"/>
+      <c r="CF49" s="82"/>
+      <c r="CG49" s="82"/>
+      <c r="CH49" s="82"/>
+      <c r="CI49" s="82"/>
+      <c r="CJ49" s="82"/>
+      <c r="CK49" s="82"/>
+      <c r="CL49" s="82"/>
+      <c r="CM49" s="82"/>
+      <c r="CN49" s="82"/>
+      <c r="CO49" s="82"/>
+      <c r="CP49" s="82"/>
+      <c r="CQ49" s="82"/>
+      <c r="CR49" s="82"/>
+      <c r="CS49" s="82"/>
+      <c r="CT49" s="82"/>
+      <c r="CU49" s="82"/>
+      <c r="CV49" s="82"/>
+      <c r="CW49" s="82"/>
+      <c r="CX49" s="82"/>
+      <c r="CY49" s="82"/>
+      <c r="CZ49" s="82"/>
+      <c r="DA49" s="82"/>
+      <c r="DB49" s="82"/>
+      <c r="DC49" s="82"/>
+      <c r="DD49" s="82"/>
+      <c r="DE49" s="82"/>
+      <c r="DF49" s="82"/>
+      <c r="DG49" s="82"/>
+      <c r="DH49" s="82"/>
+      <c r="DI49" s="82"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="64"/>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="64"/>
-      <c r="AI50" s="64"/>
-      <c r="AJ50" s="64"/>
-      <c r="AK50" s="64"/>
-      <c r="AL50" s="64"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="64"/>
-      <c r="AP50" s="64"/>
-      <c r="AQ50" s="64"/>
-      <c r="AR50" s="64"/>
-      <c r="AS50" s="64"/>
-      <c r="AT50" s="64"/>
-      <c r="AU50" s="64"/>
-      <c r="AV50" s="64"/>
-      <c r="AW50" s="64"/>
-      <c r="AX50" s="64"/>
-      <c r="AY50" s="64"/>
-      <c r="AZ50" s="64"/>
-      <c r="BA50" s="64"/>
-      <c r="BB50" s="64"/>
-      <c r="BC50" s="64"/>
-      <c r="BD50" s="64"/>
-      <c r="BE50" s="64"/>
-      <c r="BF50" s="64"/>
-      <c r="BG50" s="64"/>
-      <c r="BH50" s="64"/>
-      <c r="BI50" s="64"/>
-      <c r="BJ50" s="64"/>
-      <c r="BK50" s="64"/>
-      <c r="BL50" s="64"/>
-      <c r="BM50" s="64"/>
-      <c r="BN50" s="64"/>
-      <c r="BO50" s="64"/>
-      <c r="BP50" s="64"/>
-      <c r="BQ50" s="64"/>
-      <c r="BR50" s="64"/>
-      <c r="BS50" s="64"/>
-      <c r="BT50" s="64"/>
-      <c r="BU50" s="64"/>
-      <c r="BV50" s="64"/>
-      <c r="BW50" s="64"/>
-      <c r="BX50" s="64"/>
-      <c r="BY50" s="64"/>
-      <c r="BZ50" s="64"/>
-      <c r="CA50" s="64"/>
-      <c r="CB50" s="64"/>
-      <c r="CC50" s="64"/>
-      <c r="CD50" s="64"/>
-      <c r="CE50" s="64"/>
-      <c r="CF50" s="64"/>
-      <c r="CG50" s="64"/>
-      <c r="CH50" s="64"/>
-      <c r="CI50" s="64"/>
-      <c r="CJ50" s="64"/>
-      <c r="CK50" s="64"/>
-      <c r="CL50" s="64"/>
-      <c r="CM50" s="64"/>
-      <c r="CN50" s="64"/>
-      <c r="CO50" s="64"/>
-      <c r="CP50" s="64"/>
-      <c r="CQ50" s="64"/>
-      <c r="CR50" s="64"/>
-      <c r="CS50" s="64"/>
-      <c r="CT50" s="64"/>
-      <c r="CU50" s="64"/>
-      <c r="CV50" s="64"/>
-      <c r="CW50" s="64"/>
-      <c r="CX50" s="64"/>
-      <c r="CY50" s="64"/>
-      <c r="CZ50" s="64"/>
-      <c r="DA50" s="64"/>
-      <c r="DB50" s="64"/>
-      <c r="DC50" s="64"/>
-      <c r="DD50" s="64"/>
-      <c r="DE50" s="64"/>
-      <c r="DF50" s="64"/>
-      <c r="DG50" s="64"/>
-      <c r="DH50" s="64"/>
-      <c r="DI50" s="64"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="82"/>
+      <c r="R50" s="82"/>
+      <c r="S50" s="82"/>
+      <c r="T50" s="82"/>
+      <c r="U50" s="82"/>
+      <c r="V50" s="82"/>
+      <c r="W50" s="82"/>
+      <c r="X50" s="82"/>
+      <c r="Y50" s="82"/>
+      <c r="Z50" s="82"/>
+      <c r="AA50" s="82"/>
+      <c r="AB50" s="82"/>
+      <c r="AC50" s="82"/>
+      <c r="AD50" s="82"/>
+      <c r="AE50" s="82"/>
+      <c r="AF50" s="82"/>
+      <c r="AG50" s="82"/>
+      <c r="AH50" s="82"/>
+      <c r="AI50" s="82"/>
+      <c r="AJ50" s="82"/>
+      <c r="AK50" s="82"/>
+      <c r="AL50" s="82"/>
+      <c r="AM50" s="82"/>
+      <c r="AN50" s="82"/>
+      <c r="AO50" s="82"/>
+      <c r="AP50" s="82"/>
+      <c r="AQ50" s="82"/>
+      <c r="AR50" s="82"/>
+      <c r="AS50" s="82"/>
+      <c r="AT50" s="82"/>
+      <c r="AU50" s="82"/>
+      <c r="AV50" s="82"/>
+      <c r="AW50" s="82"/>
+      <c r="AX50" s="82"/>
+      <c r="AY50" s="82"/>
+      <c r="AZ50" s="82"/>
+      <c r="BA50" s="82"/>
+      <c r="BB50" s="82"/>
+      <c r="BC50" s="82"/>
+      <c r="BD50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BF50" s="82"/>
+      <c r="BG50" s="82"/>
+      <c r="BH50" s="82"/>
+      <c r="BI50" s="82"/>
+      <c r="BJ50" s="82"/>
+      <c r="BK50" s="82"/>
+      <c r="BL50" s="82"/>
+      <c r="BM50" s="82"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="82"/>
+      <c r="BP50" s="82"/>
+      <c r="BQ50" s="82"/>
+      <c r="BR50" s="82"/>
+      <c r="BS50" s="82"/>
+      <c r="BT50" s="82"/>
+      <c r="BU50" s="82"/>
+      <c r="BV50" s="82"/>
+      <c r="BW50" s="82"/>
+      <c r="BX50" s="82"/>
+      <c r="BY50" s="82"/>
+      <c r="BZ50" s="82"/>
+      <c r="CA50" s="82"/>
+      <c r="CB50" s="82"/>
+      <c r="CC50" s="82"/>
+      <c r="CD50" s="82"/>
+      <c r="CE50" s="82"/>
+      <c r="CF50" s="82"/>
+      <c r="CG50" s="82"/>
+      <c r="CH50" s="82"/>
+      <c r="CI50" s="82"/>
+      <c r="CJ50" s="82"/>
+      <c r="CK50" s="82"/>
+      <c r="CL50" s="82"/>
+      <c r="CM50" s="82"/>
+      <c r="CN50" s="82"/>
+      <c r="CO50" s="82"/>
+      <c r="CP50" s="82"/>
+      <c r="CQ50" s="82"/>
+      <c r="CR50" s="82"/>
+      <c r="CS50" s="82"/>
+      <c r="CT50" s="82"/>
+      <c r="CU50" s="82"/>
+      <c r="CV50" s="82"/>
+      <c r="CW50" s="82"/>
+      <c r="CX50" s="82"/>
+      <c r="CY50" s="82"/>
+      <c r="CZ50" s="82"/>
+      <c r="DA50" s="82"/>
+      <c r="DB50" s="82"/>
+      <c r="DC50" s="82"/>
+      <c r="DD50" s="82"/>
+      <c r="DE50" s="82"/>
+      <c r="DF50" s="82"/>
+      <c r="DG50" s="82"/>
+      <c r="DH50" s="82"/>
+      <c r="DI50" s="82"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="64"/>
-      <c r="N51" s="64"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="64"/>
-      <c r="T51" s="64"/>
-      <c r="U51" s="64"/>
-      <c r="V51" s="64"/>
-      <c r="W51" s="64"/>
-      <c r="X51" s="64"/>
-      <c r="Y51" s="64"/>
-      <c r="Z51" s="64"/>
-      <c r="AA51" s="64"/>
-      <c r="AB51" s="64"/>
-      <c r="AC51" s="64"/>
-      <c r="AD51" s="64"/>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
-      <c r="AH51" s="64"/>
-      <c r="AI51" s="64"/>
-      <c r="AJ51" s="64"/>
-      <c r="AK51" s="64"/>
-      <c r="AL51" s="64"/>
-      <c r="AM51" s="64"/>
-      <c r="AN51" s="64"/>
-      <c r="AO51" s="64"/>
-      <c r="AP51" s="64"/>
-      <c r="AQ51" s="64"/>
-      <c r="AR51" s="64"/>
-      <c r="AS51" s="64"/>
-      <c r="AT51" s="64"/>
-      <c r="AU51" s="64"/>
-      <c r="AV51" s="64"/>
-      <c r="AW51" s="64"/>
-      <c r="AX51" s="64"/>
-      <c r="AY51" s="64"/>
-      <c r="AZ51" s="64"/>
-      <c r="BA51" s="64"/>
-      <c r="BB51" s="64"/>
-      <c r="BC51" s="64"/>
-      <c r="BD51" s="64"/>
-      <c r="BE51" s="64"/>
-      <c r="BF51" s="64"/>
-      <c r="BG51" s="64"/>
-      <c r="BH51" s="64"/>
-      <c r="BI51" s="64"/>
-      <c r="BJ51" s="64"/>
-      <c r="BK51" s="64"/>
-      <c r="BL51" s="64"/>
-      <c r="BM51" s="64"/>
-      <c r="BN51" s="64"/>
-      <c r="BO51" s="64"/>
-      <c r="BP51" s="64"/>
-      <c r="BQ51" s="64"/>
-      <c r="BR51" s="64"/>
-      <c r="BS51" s="64"/>
-      <c r="BT51" s="64"/>
-      <c r="BU51" s="64"/>
-      <c r="BV51" s="64"/>
-      <c r="BW51" s="64"/>
-      <c r="BX51" s="64"/>
-      <c r="BY51" s="64"/>
-      <c r="BZ51" s="64"/>
-      <c r="CA51" s="64"/>
-      <c r="CB51" s="64"/>
-      <c r="CC51" s="64"/>
-      <c r="CD51" s="64"/>
-      <c r="CE51" s="64"/>
-      <c r="CF51" s="64"/>
-      <c r="CG51" s="64"/>
-      <c r="CH51" s="64"/>
-      <c r="CI51" s="64"/>
-      <c r="CJ51" s="64"/>
-      <c r="CK51" s="64"/>
-      <c r="CL51" s="64"/>
-      <c r="CM51" s="64"/>
-      <c r="CN51" s="64"/>
-      <c r="CO51" s="64"/>
-      <c r="CP51" s="64"/>
-      <c r="CQ51" s="64"/>
-      <c r="CR51" s="64"/>
-      <c r="CS51" s="64"/>
-      <c r="CT51" s="64"/>
-      <c r="CU51" s="64"/>
-      <c r="CV51" s="64"/>
-      <c r="CW51" s="64"/>
-      <c r="CX51" s="64"/>
-      <c r="CY51" s="64"/>
-      <c r="CZ51" s="64"/>
-      <c r="DA51" s="64"/>
-      <c r="DB51" s="64"/>
-      <c r="DC51" s="64"/>
-      <c r="DD51" s="64"/>
-      <c r="DE51" s="64"/>
-      <c r="DF51" s="64"/>
-      <c r="DG51" s="64"/>
-      <c r="DH51" s="64"/>
-      <c r="DI51" s="64"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
+      <c r="Q51" s="82"/>
+      <c r="R51" s="82"/>
+      <c r="S51" s="82"/>
+      <c r="T51" s="82"/>
+      <c r="U51" s="82"/>
+      <c r="V51" s="82"/>
+      <c r="W51" s="82"/>
+      <c r="X51" s="82"/>
+      <c r="Y51" s="82"/>
+      <c r="Z51" s="82"/>
+      <c r="AA51" s="82"/>
+      <c r="AB51" s="82"/>
+      <c r="AC51" s="82"/>
+      <c r="AD51" s="82"/>
+      <c r="AE51" s="82"/>
+      <c r="AF51" s="82"/>
+      <c r="AG51" s="82"/>
+      <c r="AH51" s="82"/>
+      <c r="AI51" s="82"/>
+      <c r="AJ51" s="82"/>
+      <c r="AK51" s="82"/>
+      <c r="AL51" s="82"/>
+      <c r="AM51" s="82"/>
+      <c r="AN51" s="82"/>
+      <c r="AO51" s="82"/>
+      <c r="AP51" s="82"/>
+      <c r="AQ51" s="82"/>
+      <c r="AR51" s="82"/>
+      <c r="AS51" s="82"/>
+      <c r="AT51" s="82"/>
+      <c r="AU51" s="82"/>
+      <c r="AV51" s="82"/>
+      <c r="AW51" s="82"/>
+      <c r="AX51" s="82"/>
+      <c r="AY51" s="82"/>
+      <c r="AZ51" s="82"/>
+      <c r="BA51" s="82"/>
+      <c r="BB51" s="82"/>
+      <c r="BC51" s="82"/>
+      <c r="BD51" s="82"/>
+      <c r="BE51" s="82"/>
+      <c r="BF51" s="82"/>
+      <c r="BG51" s="82"/>
+      <c r="BH51" s="82"/>
+      <c r="BI51" s="82"/>
+      <c r="BJ51" s="82"/>
+      <c r="BK51" s="82"/>
+      <c r="BL51" s="82"/>
+      <c r="BM51" s="82"/>
+      <c r="BN51" s="82"/>
+      <c r="BO51" s="82"/>
+      <c r="BP51" s="82"/>
+      <c r="BQ51" s="82"/>
+      <c r="BR51" s="82"/>
+      <c r="BS51" s="82"/>
+      <c r="BT51" s="82"/>
+      <c r="BU51" s="82"/>
+      <c r="BV51" s="82"/>
+      <c r="BW51" s="82"/>
+      <c r="BX51" s="82"/>
+      <c r="BY51" s="82"/>
+      <c r="BZ51" s="82"/>
+      <c r="CA51" s="82"/>
+      <c r="CB51" s="82"/>
+      <c r="CC51" s="82"/>
+      <c r="CD51" s="82"/>
+      <c r="CE51" s="82"/>
+      <c r="CF51" s="82"/>
+      <c r="CG51" s="82"/>
+      <c r="CH51" s="82"/>
+      <c r="CI51" s="82"/>
+      <c r="CJ51" s="82"/>
+      <c r="CK51" s="82"/>
+      <c r="CL51" s="82"/>
+      <c r="CM51" s="82"/>
+      <c r="CN51" s="82"/>
+      <c r="CO51" s="82"/>
+      <c r="CP51" s="82"/>
+      <c r="CQ51" s="82"/>
+      <c r="CR51" s="82"/>
+      <c r="CS51" s="82"/>
+      <c r="CT51" s="82"/>
+      <c r="CU51" s="82"/>
+      <c r="CV51" s="82"/>
+      <c r="CW51" s="82"/>
+      <c r="CX51" s="82"/>
+      <c r="CY51" s="82"/>
+      <c r="CZ51" s="82"/>
+      <c r="DA51" s="82"/>
+      <c r="DB51" s="82"/>
+      <c r="DC51" s="82"/>
+      <c r="DD51" s="82"/>
+      <c r="DE51" s="82"/>
+      <c r="DF51" s="82"/>
+      <c r="DG51" s="82"/>
+      <c r="DH51" s="82"/>
+      <c r="DI51" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="CZ42:DI46"/>
+    <mergeCell ref="CZ47:DI51"/>
+    <mergeCell ref="BB42:BK46"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL42:BU46"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV42:CE46"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF42:CO46"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="CP42:CY46"/>
+    <mergeCell ref="CP47:CY51"/>
+    <mergeCell ref="D42:M46"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N42:W46"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X42:AG46"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH42:AQ46"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR42:BA46"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AX2:AY3"/>
+    <mergeCell ref="AZ2:BA3"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AY4:AZ4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="AP2:AQ3"/>
+    <mergeCell ref="AN2:AO3"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AD2:AE3"/>
+    <mergeCell ref="AF2:AG3"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="U6:V6"/>
@@ -7819,100 +7928,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="L2:M3"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AD2:AE3"/>
-    <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AX2:AY3"/>
-    <mergeCell ref="AZ2:BA3"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AY4:AZ4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="AP2:AQ3"/>
-    <mergeCell ref="AN2:AO3"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
-    <mergeCell ref="D42:M46"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N42:W46"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X42:AG46"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH42:AQ46"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR42:BA46"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="CZ42:DI46"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="BB42:BK46"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL42:BU46"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV42:CE46"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF42:CO46"/>
-    <mergeCell ref="CF47:CO51"/>
-    <mergeCell ref="CP42:CY46"/>
-    <mergeCell ref="CP47:CY51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7930,15 +7945,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AD9CF6C18809D409E0B63A8FF3E1B41" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="217b736c962d345a1faef7cef7b5d759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a77f6bfd898681e5a12a068144fab656" ns2:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -8100,6 +8106,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -8107,14 +8122,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48B95A3-8CBE-4085-A074-1D1F0B8C67A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8128,6 +8135,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
